--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_6_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_6_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1929503.102170743</v>
+        <v>-1931820.290301875</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5928712.69091237</v>
+        <v>5928712.690912366</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>233.3917542280728</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>147.8294415209677</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>174.0116011126104</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -786,7 +786,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>160.7782231316289</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>147.3627673269532</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>37.0912691467155</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>34.50046002839205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>46.5768483600324</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>90.90308408509648</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>272.6351800858398</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>93.37692771947373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>45.15939909649909</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.9215512841719</v>
       </c>
       <c r="I11" t="n">
-        <v>84.16692311757269</v>
+        <v>6.126116939434932</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>56.32092547816934</v>
+        <v>134.3617316563073</v>
       </c>
       <c r="T11" t="n">
         <v>208.7539132267401</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>29.3462033503387</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5213508256977</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>149.1608388252544</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>111.2135484404742</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>198.4049807887626</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>3.829938183464937</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.0134456299283</v>
       </c>
       <c r="H14" t="n">
-        <v>295.5470915963932</v>
+        <v>295.5470915963934</v>
       </c>
       <c r="I14" t="n">
-        <v>45.11296416597153</v>
+        <v>45.11296416597199</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>111.2778307520958</v>
+        <v>111.2778307520961</v>
       </c>
       <c r="T14" t="n">
         <v>204.3194743366387</v>
@@ -1701,10 +1701,10 @@
         <v>135.0485436795361</v>
       </c>
       <c r="H15" t="n">
-        <v>90.07083190732382</v>
+        <v>90.07083190732388</v>
       </c>
       <c r="I15" t="n">
-        <v>10.38109843542721</v>
+        <v>10.38109843542743</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>129.0550452119004</v>
+        <v>129.0550452119006</v>
       </c>
       <c r="T15" t="n">
         <v>190.9143750479053</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>133.3479488311957</v>
+        <v>166.0669506829019</v>
       </c>
       <c r="H16" t="n">
         <v>145.120808464761</v>
       </c>
       <c r="I16" t="n">
-        <v>97.58968530232914</v>
+        <v>97.58968530232931</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.78206565622048</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>190.486025572949</v>
       </c>
       <c r="T16" t="n">
-        <v>219.7247396327202</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2140823378242</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>82.98573921315028</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>204.3194743366387</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0025095570205</v>
+        <v>251.0025095570199</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>122.8193698030211</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>77.91497935390041</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.78206565622048</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>190.486025572949</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,10 +2087,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G20" t="n">
         <v>411.0134456299283</v>
@@ -2099,7 +2099,7 @@
         <v>295.5470915963932</v>
       </c>
       <c r="I20" t="n">
-        <v>45.11296416597153</v>
+        <v>45.11296416597148</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>135.0485436795361</v>
       </c>
       <c r="H21" t="n">
-        <v>90.07083190732382</v>
+        <v>90.07083190732381</v>
       </c>
       <c r="I21" t="n">
-        <v>10.38109843542721</v>
+        <v>10.38109843542719</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0669506829019</v>
       </c>
       <c r="H22" t="n">
-        <v>33.82080264199965</v>
+        <v>30.81528991019517</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.78206565622045</v>
       </c>
       <c r="S22" t="n">
         <v>190.486025572949</v>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>295.5470915963932</v>
       </c>
       <c r="I23" t="n">
-        <v>45.11296416597153</v>
+        <v>45.11296416597148</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>135.0485436795361</v>
       </c>
       <c r="H24" t="n">
-        <v>90.07083190732382</v>
+        <v>90.07083190732381</v>
       </c>
       <c r="I24" t="n">
-        <v>10.38109843542721</v>
+        <v>10.38109843542719</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>147.2384446930677</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0669506829019</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.4734151940332</v>
       </c>
       <c r="T25" t="n">
         <v>219.7247396327202</v>
@@ -2573,7 +2573,7 @@
         <v>295.5470915963932</v>
       </c>
       <c r="I26" t="n">
-        <v>45.11296416597153</v>
+        <v>45.11296416597148</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         <v>135.0485436795361</v>
       </c>
       <c r="H27" t="n">
-        <v>90.07083190732382</v>
+        <v>90.07083190732381</v>
       </c>
       <c r="I27" t="n">
-        <v>10.38109843542721</v>
+        <v>10.38109843542719</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0669506829019</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>123.0205321265847</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.78206565622048</v>
+        <v>90.78206565622045</v>
       </c>
       <c r="S28" t="n">
-        <v>56.45637903684741</v>
+        <v>190.486025572949</v>
       </c>
       <c r="T28" t="n">
-        <v>219.7247396327202</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2140823378242</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>295.5470915963932</v>
       </c>
       <c r="I29" t="n">
-        <v>45.11296416597153</v>
+        <v>45.11296416597148</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>135.0485436795361</v>
       </c>
       <c r="H30" t="n">
-        <v>90.07083190732382</v>
+        <v>90.07083190732381</v>
       </c>
       <c r="I30" t="n">
-        <v>10.38109843542721</v>
+        <v>10.38109843542719</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0669506829019</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.120808464761</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.58968530232914</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>190.486025572949</v>
       </c>
       <c r="T31" t="n">
-        <v>219.7247396327202</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>229.2014719589078</v>
+        <v>286.2140823378242</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>57.021639713497</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3047,7 @@
         <v>295.5470915963932</v>
       </c>
       <c r="I32" t="n">
-        <v>45.11296416597153</v>
+        <v>45.11296416597148</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>135.0485436795361</v>
       </c>
       <c r="H33" t="n">
-        <v>90.07083190732382</v>
+        <v>90.07083190732381</v>
       </c>
       <c r="I33" t="n">
-        <v>10.38109843542721</v>
+        <v>10.38109843542719</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>118.4108162132436</v>
       </c>
       <c r="D34" t="n">
-        <v>99.7794681328281</v>
+        <v>99.77946813282809</v>
       </c>
       <c r="E34" t="n">
-        <v>97.59795776118492</v>
+        <v>97.5979577611849</v>
       </c>
       <c r="F34" t="n">
-        <v>96.58504313754699</v>
+        <v>96.58504313754698</v>
       </c>
       <c r="G34" t="n">
         <v>117.2309457975176</v>
       </c>
       <c r="H34" t="n">
-        <v>96.28480357937676</v>
+        <v>96.28480357937674</v>
       </c>
       <c r="I34" t="n">
-        <v>48.75368041694489</v>
+        <v>48.75368041694487</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.94606077083623</v>
+        <v>41.94606077083618</v>
       </c>
       <c r="S34" t="n">
         <v>141.6500206875647</v>
       </c>
       <c r="T34" t="n">
-        <v>170.888734747336</v>
+        <v>170.8887347473359</v>
       </c>
       <c r="U34" t="n">
         <v>237.3780774524399</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>295.5470915963932</v>
       </c>
       <c r="I35" t="n">
-        <v>45.11296416597153</v>
+        <v>45.11296416597148</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>135.0485436795361</v>
       </c>
       <c r="H36" t="n">
-        <v>90.07083190732382</v>
+        <v>90.07083190732381</v>
       </c>
       <c r="I36" t="n">
-        <v>10.38109843542721</v>
+        <v>10.38109843542719</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>118.4108162132435</v>
       </c>
       <c r="D37" t="n">
-        <v>99.77946813282804</v>
+        <v>99.77946813282807</v>
       </c>
       <c r="E37" t="n">
-        <v>97.59795776118486</v>
+        <v>97.59795776118489</v>
       </c>
       <c r="F37" t="n">
-        <v>96.58504313754693</v>
+        <v>96.58504313754696</v>
       </c>
       <c r="G37" t="n">
         <v>117.2309457975176</v>
       </c>
       <c r="H37" t="n">
-        <v>96.2848035793767</v>
+        <v>96.28480357937673</v>
       </c>
       <c r="I37" t="n">
-        <v>48.75368041694483</v>
+        <v>48.75368041694486</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>41.94606077083617</v>
       </c>
       <c r="S37" t="n">
-        <v>141.6500206875646</v>
+        <v>141.6500206875647</v>
       </c>
       <c r="T37" t="n">
         <v>170.8887347473359</v>
       </c>
       <c r="U37" t="n">
-        <v>237.3780774524398</v>
+        <v>237.3780774524399</v>
       </c>
       <c r="V37" t="n">
         <v>203.3016384384437</v>
@@ -3487,7 +3487,7 @@
         <v>237.6869934512067</v>
       </c>
       <c r="X37" t="n">
-        <v>176.8736505036528</v>
+        <v>176.8736505036529</v>
       </c>
       <c r="Y37" t="n">
         <v>169.7486484667105</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>295.5470915963932</v>
       </c>
       <c r="I38" t="n">
-        <v>45.11296416597153</v>
+        <v>45.11296416597148</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3597,10 +3597,10 @@
         <v>135.0485436795361</v>
       </c>
       <c r="H39" t="n">
-        <v>90.07083190732382</v>
+        <v>90.07083190732381</v>
       </c>
       <c r="I39" t="n">
-        <v>10.38109843542721</v>
+        <v>10.38109843542719</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>96.28480357937678</v>
       </c>
       <c r="I40" t="n">
-        <v>48.75368041694492</v>
+        <v>48.75368041694491</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.94606077083625</v>
+        <v>41.94606077083622</v>
       </c>
       <c r="S40" t="n">
         <v>141.6500206875647</v>
@@ -3755,10 +3755,10 @@
         <v>411.0134456299283</v>
       </c>
       <c r="H41" t="n">
-        <v>295.5470915963932</v>
+        <v>295.5470915963941</v>
       </c>
       <c r="I41" t="n">
-        <v>45.11296416597153</v>
+        <v>45.11296416597148</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>135.0485436795361</v>
       </c>
       <c r="H42" t="n">
-        <v>90.07083190732382</v>
+        <v>90.07083190732381</v>
       </c>
       <c r="I42" t="n">
-        <v>10.38109843542721</v>
+        <v>10.38109843542719</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>130.995975296553</v>
       </c>
       <c r="C43" t="n">
-        <v>118.4108162132435</v>
+        <v>118.4108162132436</v>
       </c>
       <c r="D43" t="n">
-        <v>99.77946813282807</v>
+        <v>99.7794681328281</v>
       </c>
       <c r="E43" t="n">
-        <v>97.59795776118489</v>
+        <v>97.59795776118492</v>
       </c>
       <c r="F43" t="n">
-        <v>96.58504313754696</v>
+        <v>96.58504313754699</v>
       </c>
       <c r="G43" t="n">
         <v>117.2309457975176</v>
       </c>
       <c r="H43" t="n">
-        <v>96.28480357937673</v>
+        <v>96.28480357937676</v>
       </c>
       <c r="I43" t="n">
-        <v>48.75368041694486</v>
+        <v>48.75368041694488</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.9460607708362</v>
+        <v>41.94606077083619</v>
       </c>
       <c r="S43" t="n">
         <v>141.6500206875647</v>
       </c>
       <c r="T43" t="n">
-        <v>170.8887347473359</v>
+        <v>170.888734747336</v>
       </c>
       <c r="U43" t="n">
         <v>237.3780774524399</v>
@@ -3995,7 +3995,7 @@
         <v>295.5470915963932</v>
       </c>
       <c r="I44" t="n">
-        <v>45.11296416597153</v>
+        <v>45.11296416597145</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>204.3194743366387</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0025095570199</v>
+        <v>251.0025095570205</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4071,10 +4071,10 @@
         <v>135.0485436795361</v>
       </c>
       <c r="H45" t="n">
-        <v>90.07083190732382</v>
+        <v>90.07083190732381</v>
       </c>
       <c r="I45" t="n">
-        <v>10.38109843542721</v>
+        <v>10.38109843542718</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.995975296553</v>
+        <v>130.9959752965531</v>
       </c>
       <c r="C46" t="n">
-        <v>118.4108162132435</v>
+        <v>118.4108162132436</v>
       </c>
       <c r="D46" t="n">
-        <v>99.77946813282804</v>
+        <v>99.77946813282811</v>
       </c>
       <c r="E46" t="n">
-        <v>97.59795776118486</v>
+        <v>97.59795776118493</v>
       </c>
       <c r="F46" t="n">
-        <v>96.58504313754693</v>
+        <v>96.585043137547</v>
       </c>
       <c r="G46" t="n">
         <v>117.2309457975176</v>
       </c>
       <c r="H46" t="n">
-        <v>96.2848035793767</v>
+        <v>96.28480357937676</v>
       </c>
       <c r="I46" t="n">
-        <v>48.75368041694483</v>
+        <v>48.75368041694489</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.94606077083617</v>
+        <v>41.94606077083621</v>
       </c>
       <c r="S46" t="n">
-        <v>141.6500206875646</v>
+        <v>141.6500206875647</v>
       </c>
       <c r="T46" t="n">
-        <v>170.8887347473359</v>
+        <v>170.888734747336</v>
       </c>
       <c r="U46" t="n">
-        <v>237.3780774524398</v>
+        <v>237.3780774524399</v>
       </c>
       <c r="V46" t="n">
-        <v>203.3016384384437</v>
+        <v>203.3016384384438</v>
       </c>
       <c r="W46" t="n">
-        <v>237.6869934512067</v>
+        <v>237.6869934512068</v>
       </c>
       <c r="X46" t="n">
-        <v>176.8736505036528</v>
+        <v>176.8736505036529</v>
       </c>
       <c r="Y46" t="n">
-        <v>169.7486484667105</v>
+        <v>169.7486484667106</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1249.712458167646</v>
+        <v>1159.40775858698</v>
       </c>
       <c r="C2" t="n">
-        <v>1013.963211472623</v>
+        <v>1159.40775858698</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>801.1420599802298</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>801.1420599802298</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="Y2" t="n">
-        <v>1249.712458167646</v>
+        <v>1546.007598651102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,7 +4404,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4416,22 +4416,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073964</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>397.6292392479589</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="C4" t="n">
-        <v>397.6292392479589</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U4" t="n">
-        <v>579.2777040781987</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V4" t="n">
-        <v>579.2777040781987</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W4" t="n">
-        <v>579.2777040781987</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="X4" t="n">
-        <v>579.2777040781987</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.2777040781987</v>
+        <v>352.6741383092202</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2011.109222511521</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2011.109222511521</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>532.9350040648279</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>532.9350040648279</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>532.9350040648279</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>532.9350040648279</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="W7" t="n">
-        <v>532.9350040648279</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X7" t="n">
-        <v>532.9350040648279</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y7" t="n">
-        <v>532.9350040648279</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1018.106519274536</v>
+        <v>1571.689018870909</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>1202.726501930497</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1202.726501930497</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>816.938249332253</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>809.9927485830495</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545185</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1112.426648284105</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.106519274536</v>
+        <v>1958.288858935031</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>393.339819218074</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>393.339819218074</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.926166098271</v>
+        <v>2351.097068948637</v>
       </c>
       <c r="C11" t="n">
-        <v>2060.963649157859</v>
+        <v>1982.134552008225</v>
       </c>
       <c r="D11" t="n">
-        <v>1702.697950551109</v>
+        <v>1623.868853401475</v>
       </c>
       <c r="E11" t="n">
-        <v>1316.909697952864</v>
+        <v>1238.08060080323</v>
       </c>
       <c r="F11" t="n">
-        <v>905.9237931632568</v>
+        <v>827.0946960136228</v>
       </c>
       <c r="G11" t="n">
-        <v>489.7354570009225</v>
+        <v>410.9063598512884</v>
       </c>
       <c r="H11" t="n">
-        <v>180.7237890371125</v>
+        <v>101.8946918874784</v>
       </c>
       <c r="I11" t="n">
         <v>95.70669497895823</v>
@@ -5066,25 +5066,25 @@
         <v>4785.334748947911</v>
       </c>
       <c r="S11" t="n">
-        <v>4728.444925232589</v>
+        <v>4649.615828082954</v>
       </c>
       <c r="T11" t="n">
-        <v>4517.58238661972</v>
+        <v>4438.753289470085</v>
       </c>
       <c r="U11" t="n">
-        <v>4263.96263901297</v>
+        <v>4185.133541863335</v>
       </c>
       <c r="V11" t="n">
-        <v>3932.899751669399</v>
+        <v>3854.070654519765</v>
       </c>
       <c r="W11" t="n">
-        <v>3580.131096399285</v>
+        <v>3501.30199924965</v>
       </c>
       <c r="X11" t="n">
-        <v>3206.665338138205</v>
+        <v>3127.83624098857</v>
       </c>
       <c r="Y11" t="n">
-        <v>2816.526006162393</v>
+        <v>2737.696909012759</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>95.70669497895823</v>
       </c>
       <c r="J12" t="n">
-        <v>258.9283266894512</v>
+        <v>134.0982017024465</v>
       </c>
       <c r="K12" t="n">
-        <v>664.5209359564927</v>
+        <v>528.5046875825666</v>
       </c>
       <c r="L12" t="n">
-        <v>904.1627067892488</v>
+        <v>1135.278400265747</v>
       </c>
       <c r="M12" t="n">
-        <v>1203.17021835124</v>
+        <v>1434.285911827739</v>
       </c>
       <c r="N12" t="n">
-        <v>1862.917533506952</v>
+        <v>1755.615907411905</v>
       </c>
       <c r="O12" t="n">
-        <v>2134.651907357556</v>
+        <v>2027.350281262509</v>
       </c>
       <c r="P12" t="n">
-        <v>2333.409632654964</v>
+        <v>2541.386147513454</v>
       </c>
       <c r="Q12" t="n">
         <v>2624.331226836182</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>971.8757961991398</v>
+        <v>675.6020075443787</v>
       </c>
       <c r="C13" t="n">
-        <v>971.8757961991398</v>
+        <v>506.6658246164718</v>
       </c>
       <c r="D13" t="n">
-        <v>821.7591567868041</v>
+        <v>506.6658246164718</v>
       </c>
       <c r="E13" t="n">
-        <v>673.8460632044109</v>
+        <v>358.7527310340787</v>
       </c>
       <c r="F13" t="n">
-        <v>526.9561157065006</v>
+        <v>358.7527310340787</v>
       </c>
       <c r="G13" t="n">
         <v>358.7527310340787</v>
@@ -5221,28 +5221,28 @@
         <v>1470.138874577563</v>
       </c>
       <c r="R13" t="n">
-        <v>1357.801956960923</v>
+        <v>1470.138874577563</v>
       </c>
       <c r="S13" t="n">
-        <v>1157.392885457122</v>
+        <v>1470.138874577563</v>
       </c>
       <c r="T13" t="n">
-        <v>1157.392885457122</v>
+        <v>1470.138874577563</v>
       </c>
       <c r="U13" t="n">
-        <v>1157.392885457122</v>
+        <v>1470.138874577563</v>
       </c>
       <c r="V13" t="n">
-        <v>1157.392885457122</v>
+        <v>1215.454386371676</v>
       </c>
       <c r="W13" t="n">
-        <v>1153.524261029379</v>
+        <v>926.0372163347156</v>
       </c>
       <c r="X13" t="n">
-        <v>1153.524261029379</v>
+        <v>926.0372163347156</v>
       </c>
       <c r="Y13" t="n">
-        <v>1153.524261029379</v>
+        <v>705.2446371911855</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2378.97523093649</v>
+        <v>2378.975230936491</v>
       </c>
       <c r="C14" t="n">
         <v>2010.012713996079</v>
@@ -5261,52 +5261,52 @@
         <v>1651.747015389329</v>
       </c>
       <c r="E14" t="n">
-        <v>1265.958762791085</v>
+        <v>1265.958762791084</v>
       </c>
       <c r="F14" t="n">
-        <v>854.9728580014771</v>
+        <v>854.9728580014769</v>
       </c>
       <c r="G14" t="n">
         <v>439.8077614055901</v>
       </c>
       <c r="H14" t="n">
-        <v>141.2753456516568</v>
+        <v>141.2753456516572</v>
       </c>
       <c r="I14" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J14" t="n">
-        <v>276.8790537681871</v>
+        <v>444.2847027885391</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1479737500995</v>
+        <v>1087.457581215903</v>
       </c>
       <c r="L14" t="n">
-        <v>1035.852827812833</v>
+        <v>1524.162435278635</v>
       </c>
       <c r="M14" t="n">
-        <v>1998.458957576669</v>
+        <v>2486.768565042469</v>
       </c>
       <c r="N14" t="n">
-        <v>2653.326853846221</v>
+        <v>3348.899754386111</v>
       </c>
       <c r="O14" t="n">
-        <v>3517.992257831266</v>
+        <v>3836.572978921037</v>
       </c>
       <c r="P14" t="n">
-        <v>4218.289792483833</v>
+        <v>4218.289792483834</v>
       </c>
       <c r="Q14" t="n">
-        <v>4666.96231663937</v>
+        <v>4666.962316639371</v>
       </c>
       <c r="R14" t="n">
         <v>4785.334748947911</v>
       </c>
       <c r="S14" t="n">
-        <v>4672.93289970337</v>
+        <v>4672.932899703369</v>
       </c>
       <c r="T14" t="n">
-        <v>4466.549592292624</v>
+        <v>4466.549592292623</v>
       </c>
       <c r="U14" t="n">
         <v>4213.011703851189</v>
@@ -5331,55 +5331,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>962.7454135890858</v>
+        <v>962.7454135890863</v>
       </c>
       <c r="C15" t="n">
-        <v>788.2923843079589</v>
+        <v>788.2923843079593</v>
       </c>
       <c r="D15" t="n">
-        <v>639.3579746467076</v>
+        <v>639.357974646708</v>
       </c>
       <c r="E15" t="n">
-        <v>480.1205196412521</v>
+        <v>480.1205196412525</v>
       </c>
       <c r="F15" t="n">
-        <v>333.5859616681371</v>
+        <v>333.5859616681374</v>
       </c>
       <c r="G15" t="n">
-        <v>197.1732912847673</v>
+        <v>197.1732912847676</v>
       </c>
       <c r="H15" t="n">
-        <v>106.1926529945413</v>
+        <v>106.1926529945415</v>
       </c>
       <c r="I15" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J15" t="n">
-        <v>252.7486774534993</v>
+        <v>184.793863761919</v>
       </c>
       <c r="K15" t="n">
-        <v>483.1676632239782</v>
+        <v>415.2128495323969</v>
       </c>
       <c r="L15" t="n">
-        <v>839.3169662165326</v>
+        <v>771.36215252495</v>
       </c>
       <c r="M15" t="n">
-        <v>1274.283272503735</v>
+        <v>1206.328458812151</v>
       </c>
       <c r="N15" t="n">
-        <v>1735.170487551467</v>
+        <v>1667.215673859882</v>
       </c>
       <c r="O15" t="n">
-        <v>2134.572452495347</v>
+        <v>2066.617638803759</v>
       </c>
       <c r="P15" t="n">
-        <v>2435.794675018758</v>
+        <v>2367.839861327169</v>
       </c>
       <c r="Q15" t="n">
-        <v>2587.234557209454</v>
+        <v>2587.234557209455</v>
       </c>
       <c r="R15" t="n">
-        <v>2587.234557209454</v>
+        <v>2587.234557209455</v>
       </c>
       <c r="S15" t="n">
         <v>2456.875925682282</v>
@@ -5391,7 +5391,7 @@
         <v>2035.962014539585</v>
       </c>
       <c r="V15" t="n">
-        <v>1800.809906307842</v>
+        <v>1800.809906307843</v>
       </c>
       <c r="W15" t="n">
         <v>1546.572549579641</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>939.3029317127099</v>
+        <v>1122.469067944951</v>
       </c>
       <c r="C16" t="n">
-        <v>770.366748784803</v>
+        <v>953.5328850170442</v>
       </c>
       <c r="D16" t="n">
-        <v>770.366748784803</v>
+        <v>803.4162456047085</v>
       </c>
       <c r="E16" t="n">
-        <v>622.4536552024099</v>
+        <v>655.5031520223154</v>
       </c>
       <c r="F16" t="n">
-        <v>475.5637077044995</v>
+        <v>508.613204524405</v>
       </c>
       <c r="G16" t="n">
-        <v>340.8688098952109</v>
+        <v>340.8688098952111</v>
       </c>
       <c r="H16" t="n">
-        <v>194.2821346782806</v>
+        <v>194.2821346782808</v>
       </c>
       <c r="I16" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J16" t="n">
-        <v>137.9496457517058</v>
+        <v>137.9496457517054</v>
       </c>
       <c r="K16" t="n">
-        <v>337.2046271066356</v>
+        <v>337.2046271066346</v>
       </c>
       <c r="L16" t="n">
-        <v>647.7088367548654</v>
+        <v>647.7088367548638</v>
       </c>
       <c r="M16" t="n">
-        <v>985.4811130207351</v>
+        <v>985.4811130207327</v>
       </c>
       <c r="N16" t="n">
-        <v>1320.656535937014</v>
+        <v>1320.656535937011</v>
       </c>
       <c r="O16" t="n">
-        <v>1614.228993199941</v>
+        <v>1614.228993199937</v>
       </c>
       <c r="P16" t="n">
-        <v>1841.910264368665</v>
+        <v>1841.910264368661</v>
       </c>
       <c r="Q16" t="n">
-        <v>1916.109894724479</v>
+        <v>1916.109894724474</v>
       </c>
       <c r="R16" t="n">
-        <v>1824.410838506074</v>
+        <v>1916.109894724474</v>
       </c>
       <c r="S16" t="n">
-        <v>1632.000711664712</v>
+        <v>1723.699767883111</v>
       </c>
       <c r="T16" t="n">
-        <v>1410.056530217519</v>
+        <v>1723.699767883111</v>
       </c>
       <c r="U16" t="n">
-        <v>1120.95139654295</v>
+        <v>1723.699767883111</v>
       </c>
       <c r="V16" t="n">
-        <v>1120.95139654295</v>
+        <v>1723.699767883111</v>
       </c>
       <c r="W16" t="n">
-        <v>1120.95139654295</v>
+        <v>1434.282597846151</v>
       </c>
       <c r="X16" t="n">
-        <v>1120.95139654295</v>
+        <v>1206.293046948133</v>
       </c>
       <c r="Y16" t="n">
-        <v>1120.95139654295</v>
+        <v>1122.469067944951</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>2010.012713996079</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.747015389328</v>
+        <v>1651.747015389329</v>
       </c>
       <c r="E17" t="n">
-        <v>1265.958762791084</v>
+        <v>1265.958762791085</v>
       </c>
       <c r="F17" t="n">
-        <v>854.9728580014764</v>
+        <v>854.9728580014773</v>
       </c>
       <c r="G17" t="n">
-        <v>439.8077614055893</v>
+        <v>439.80776140559</v>
       </c>
       <c r="H17" t="n">
-        <v>141.2753456516567</v>
+        <v>141.2753456516574</v>
       </c>
       <c r="I17" t="n">
         <v>95.70669497895823</v>
@@ -5519,13 +5519,13 @@
         <v>1087.457581215906</v>
       </c>
       <c r="L17" t="n">
-        <v>1605.162471636827</v>
+        <v>1937.647037683585</v>
       </c>
       <c r="M17" t="n">
-        <v>2122.750203242759</v>
+        <v>2455.234769289517</v>
       </c>
       <c r="N17" t="n">
-        <v>2653.326853846221</v>
+        <v>2985.811419892979</v>
       </c>
       <c r="O17" t="n">
         <v>3517.992257831266</v>
@@ -5595,10 +5595,10 @@
         <v>184.7938637619196</v>
       </c>
       <c r="K18" t="n">
-        <v>415.2128495323985</v>
+        <v>483.1676632239782</v>
       </c>
       <c r="L18" t="n">
-        <v>771.362152524953</v>
+        <v>839.3169662165326</v>
       </c>
       <c r="M18" t="n">
         <v>1274.283272503735</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>174.4086943263324</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="C19" t="n">
-        <v>174.4086943263324</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="D19" t="n">
-        <v>174.4086943263324</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="E19" t="n">
-        <v>174.4086943263324</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="F19" t="n">
-        <v>174.4086943263324</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="G19" t="n">
-        <v>174.4086943263324</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="H19" t="n">
         <v>95.70669497895823</v>
@@ -5695,28 +5695,28 @@
         <v>1916.109894724479</v>
       </c>
       <c r="R19" t="n">
-        <v>1824.410838506074</v>
+        <v>1916.109894724479</v>
       </c>
       <c r="S19" t="n">
-        <v>1632.000711664712</v>
+        <v>1723.699767883116</v>
       </c>
       <c r="T19" t="n">
-        <v>1410.056530217519</v>
+        <v>1501.755586435924</v>
       </c>
       <c r="U19" t="n">
-        <v>1120.95139654295</v>
+        <v>1212.650452761354</v>
       </c>
       <c r="V19" t="n">
-        <v>866.2669083370628</v>
+        <v>957.9659645554674</v>
       </c>
       <c r="W19" t="n">
-        <v>576.8497383001022</v>
+        <v>668.5487945185068</v>
       </c>
       <c r="X19" t="n">
-        <v>576.8497383001022</v>
+        <v>440.5592436204895</v>
       </c>
       <c r="Y19" t="n">
-        <v>356.0571591565721</v>
+        <v>219.7666644769594</v>
       </c>
     </row>
     <row r="20">
@@ -5735,7 +5735,7 @@
         <v>1651.747015389329</v>
       </c>
       <c r="E20" t="n">
-        <v>1265.958762791084</v>
+        <v>1265.958762791085</v>
       </c>
       <c r="F20" t="n">
         <v>854.9728580014764</v>
@@ -5750,28 +5750,28 @@
         <v>95.70669497895823</v>
       </c>
       <c r="J20" t="n">
-        <v>444.2847027885401</v>
+        <v>276.8790537681871</v>
       </c>
       <c r="K20" t="n">
-        <v>1087.457581215906</v>
+        <v>599.1479737500997</v>
       </c>
       <c r="L20" t="n">
-        <v>1605.162471636827</v>
+        <v>1449.337430217779</v>
       </c>
       <c r="M20" t="n">
-        <v>2122.750203242759</v>
+        <v>2411.943559981616</v>
       </c>
       <c r="N20" t="n">
-        <v>2653.326853846221</v>
+        <v>3375.493665752942</v>
       </c>
       <c r="O20" t="n">
-        <v>3517.992257831266</v>
+        <v>4111.824075348592</v>
       </c>
       <c r="P20" t="n">
-        <v>4218.289792483833</v>
+        <v>4493.540888911391</v>
       </c>
       <c r="Q20" t="n">
-        <v>4666.96231663937</v>
+        <v>4732.021572313623</v>
       </c>
       <c r="R20" t="n">
         <v>4785.334748947911</v>
@@ -5823,22 +5823,22 @@
         <v>197.1732912847673</v>
       </c>
       <c r="H21" t="n">
-        <v>106.1926529945413</v>
+        <v>106.1926529945412</v>
       </c>
       <c r="I21" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J21" t="n">
-        <v>184.7938637619196</v>
+        <v>252.7486774534988</v>
       </c>
       <c r="K21" t="n">
-        <v>415.2128495323985</v>
+        <v>483.1676632239779</v>
       </c>
       <c r="L21" t="n">
-        <v>839.3169662165326</v>
+        <v>839.3169662165324</v>
       </c>
       <c r="M21" t="n">
-        <v>1274.283272503735</v>
+        <v>1274.283272503734</v>
       </c>
       <c r="N21" t="n">
         <v>1735.170487551467</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.5562863574158</v>
+        <v>463.5138280009025</v>
       </c>
       <c r="C22" t="n">
-        <v>594.620103429509</v>
+        <v>294.5776450729957</v>
       </c>
       <c r="D22" t="n">
-        <v>444.5034640171732</v>
+        <v>294.5776450729957</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5034640171732</v>
+        <v>294.5776450729957</v>
       </c>
       <c r="F22" t="n">
-        <v>297.6135165192628</v>
+        <v>294.5776450729957</v>
       </c>
       <c r="G22" t="n">
-        <v>129.869121890069</v>
+        <v>126.8332504438018</v>
       </c>
       <c r="H22" t="n">
         <v>95.70669497895823</v>
@@ -5911,49 +5911,49 @@
         <v>137.9496457517058</v>
       </c>
       <c r="K22" t="n">
-        <v>337.2046271066356</v>
+        <v>337.2046271066357</v>
       </c>
       <c r="L22" t="n">
-        <v>647.7088367548654</v>
+        <v>647.7088367548656</v>
       </c>
       <c r="M22" t="n">
-        <v>985.4811130207351</v>
+        <v>985.4811130207354</v>
       </c>
       <c r="N22" t="n">
-        <v>1320.656535937014</v>
+        <v>1320.656535937015</v>
       </c>
       <c r="O22" t="n">
         <v>1614.228993199941</v>
       </c>
       <c r="P22" t="n">
-        <v>1841.910264368665</v>
+        <v>1841.910264368666</v>
       </c>
       <c r="Q22" t="n">
         <v>1916.109894724479</v>
       </c>
       <c r="R22" t="n">
-        <v>1916.109894724479</v>
+        <v>1824.410838506075</v>
       </c>
       <c r="S22" t="n">
-        <v>1723.699767883116</v>
+        <v>1632.000711664712</v>
       </c>
       <c r="T22" t="n">
-        <v>1501.755586435924</v>
+        <v>1410.05653021752</v>
       </c>
       <c r="U22" t="n">
-        <v>1501.755586435924</v>
+        <v>1410.05653021752</v>
       </c>
       <c r="V22" t="n">
-        <v>1501.755586435924</v>
+        <v>1155.372042011633</v>
       </c>
       <c r="W22" t="n">
-        <v>1212.338416398963</v>
+        <v>865.9548719746724</v>
       </c>
       <c r="X22" t="n">
-        <v>984.348865500946</v>
+        <v>865.9548719746724</v>
       </c>
       <c r="Y22" t="n">
-        <v>763.5562863574158</v>
+        <v>645.1622928311423</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2378.97523093649</v>
+        <v>2378.975230936489</v>
       </c>
       <c r="C23" t="n">
-        <v>2010.012713996079</v>
+        <v>2010.012713996078</v>
       </c>
       <c r="D23" t="n">
         <v>1651.747015389328</v>
@@ -5975,64 +5975,64 @@
         <v>1265.958762791084</v>
       </c>
       <c r="F23" t="n">
-        <v>854.9728580014764</v>
+        <v>854.9728580014763</v>
       </c>
       <c r="G23" t="n">
-        <v>439.8077614055893</v>
+        <v>439.8077614055892</v>
       </c>
       <c r="H23" t="n">
-        <v>141.2753456516567</v>
+        <v>141.2753456516566</v>
       </c>
       <c r="I23" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J23" t="n">
-        <v>444.2847027885401</v>
+        <v>276.8790537681871</v>
       </c>
       <c r="K23" t="n">
-        <v>1087.457581215906</v>
+        <v>599.1479737500997</v>
       </c>
       <c r="L23" t="n">
-        <v>1937.647037683585</v>
+        <v>1449.337430217779</v>
       </c>
       <c r="M23" t="n">
-        <v>2455.234769289517</v>
+        <v>2411.943559981616</v>
       </c>
       <c r="N23" t="n">
-        <v>3030.319033296338</v>
+        <v>3375.493665752942</v>
       </c>
       <c r="O23" t="n">
-        <v>3517.992257831265</v>
+        <v>4111.824075348592</v>
       </c>
       <c r="P23" t="n">
-        <v>4218.289792483832</v>
+        <v>4493.540888911391</v>
       </c>
       <c r="Q23" t="n">
-        <v>4666.962316639369</v>
+        <v>4732.021572313623</v>
       </c>
       <c r="R23" t="n">
-        <v>4785.33474894791</v>
+        <v>4785.334748947911</v>
       </c>
       <c r="S23" t="n">
-        <v>4672.932899703369</v>
+        <v>4672.93289970337</v>
       </c>
       <c r="T23" t="n">
-        <v>4466.549592292623</v>
+        <v>4466.549592292624</v>
       </c>
       <c r="U23" t="n">
-        <v>4213.011703851189</v>
+        <v>4213.011703851188</v>
       </c>
       <c r="V23" t="n">
-        <v>3881.948816507618</v>
+        <v>3881.948816507617</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.180161237504</v>
+        <v>3529.180161237503</v>
       </c>
       <c r="X23" t="n">
-        <v>3155.714402976424</v>
+        <v>3155.714402976423</v>
       </c>
       <c r="Y23" t="n">
-        <v>2765.575071000612</v>
+        <v>2765.575071000611</v>
       </c>
     </row>
     <row r="24">
@@ -6060,22 +6060,22 @@
         <v>197.1732912847673</v>
       </c>
       <c r="H24" t="n">
-        <v>106.1926529945413</v>
+        <v>106.1926529945412</v>
       </c>
       <c r="I24" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J24" t="n">
-        <v>252.7486774534993</v>
+        <v>252.7486774534988</v>
       </c>
       <c r="K24" t="n">
-        <v>483.1676632239782</v>
+        <v>483.1676632239779</v>
       </c>
       <c r="L24" t="n">
-        <v>839.3169662165326</v>
+        <v>839.3169662165324</v>
       </c>
       <c r="M24" t="n">
-        <v>1274.283272503735</v>
+        <v>1274.283272503734</v>
       </c>
       <c r="N24" t="n">
         <v>1735.170487551467</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.4510896081521</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="C25" t="n">
-        <v>263.4510896081521</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="D25" t="n">
-        <v>263.4510896081521</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="E25" t="n">
-        <v>263.4510896081521</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="F25" t="n">
-        <v>263.4510896081521</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="G25" t="n">
         <v>95.70669497895823</v>
@@ -6148,22 +6148,22 @@
         <v>137.9496457517058</v>
       </c>
       <c r="K25" t="n">
-        <v>337.2046271066356</v>
+        <v>337.2046271066357</v>
       </c>
       <c r="L25" t="n">
-        <v>647.7088367548654</v>
+        <v>647.7088367548656</v>
       </c>
       <c r="M25" t="n">
-        <v>985.4811130207351</v>
+        <v>985.4811130207354</v>
       </c>
       <c r="N25" t="n">
-        <v>1320.656535937014</v>
+        <v>1320.656535937015</v>
       </c>
       <c r="O25" t="n">
         <v>1614.228993199941</v>
       </c>
       <c r="P25" t="n">
-        <v>1841.910264368665</v>
+        <v>1841.910264368666</v>
       </c>
       <c r="Q25" t="n">
         <v>1916.109894724479</v>
@@ -6172,25 +6172,25 @@
         <v>1916.109894724479</v>
       </c>
       <c r="S25" t="n">
-        <v>1916.109894724479</v>
+        <v>1781.288263215355</v>
       </c>
       <c r="T25" t="n">
-        <v>1694.165713277287</v>
+        <v>1559.344081768163</v>
       </c>
       <c r="U25" t="n">
-        <v>1405.060579602717</v>
+        <v>1270.238948093593</v>
       </c>
       <c r="V25" t="n">
-        <v>1150.37609139683</v>
+        <v>1015.554459887706</v>
       </c>
       <c r="W25" t="n">
-        <v>860.958921359869</v>
+        <v>726.1372898507453</v>
       </c>
       <c r="X25" t="n">
-        <v>632.9693704618517</v>
+        <v>498.147738952728</v>
       </c>
       <c r="Y25" t="n">
-        <v>412.1767913183215</v>
+        <v>277.3551598091979</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2378.97523093649</v>
+        <v>2378.975230936489</v>
       </c>
       <c r="C26" t="n">
-        <v>2010.012713996079</v>
+        <v>2010.012713996078</v>
       </c>
       <c r="D26" t="n">
-        <v>1651.747015389329</v>
+        <v>1651.747015389328</v>
       </c>
       <c r="E26" t="n">
-        <v>1265.958762791085</v>
+        <v>1265.958762791084</v>
       </c>
       <c r="F26" t="n">
-        <v>854.9728580014771</v>
+        <v>854.9728580014763</v>
       </c>
       <c r="G26" t="n">
-        <v>439.8077614055898</v>
+        <v>439.8077614055892</v>
       </c>
       <c r="H26" t="n">
-        <v>141.2753456516568</v>
+        <v>141.2753456516566</v>
       </c>
       <c r="I26" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J26" t="n">
-        <v>444.2847027885401</v>
+        <v>276.8790537681871</v>
       </c>
       <c r="K26" t="n">
-        <v>1087.457581215906</v>
+        <v>599.1479737500997</v>
       </c>
       <c r="L26" t="n">
-        <v>1937.647037683585</v>
+        <v>1321.002435828384</v>
       </c>
       <c r="M26" t="n">
-        <v>2455.234769289517</v>
+        <v>2283.60856559222</v>
       </c>
       <c r="N26" t="n">
-        <v>2985.811419892979</v>
+        <v>3247.158671363546</v>
       </c>
       <c r="O26" t="n">
-        <v>3517.992257831266</v>
+        <v>4111.824075348592</v>
       </c>
       <c r="P26" t="n">
-        <v>4218.289792483833</v>
+        <v>4493.540888911391</v>
       </c>
       <c r="Q26" t="n">
-        <v>4666.96231663937</v>
+        <v>4732.021572313623</v>
       </c>
       <c r="R26" t="n">
         <v>4785.334748947911</v>
       </c>
       <c r="S26" t="n">
-        <v>4672.93289970337</v>
+        <v>4672.932899703368</v>
       </c>
       <c r="T26" t="n">
-        <v>4466.549592292624</v>
+        <v>4466.549592292623</v>
       </c>
       <c r="U26" t="n">
-        <v>4213.011703851189</v>
+        <v>4213.011703851188</v>
       </c>
       <c r="V26" t="n">
-        <v>3881.948816507618</v>
+        <v>3881.948816507617</v>
       </c>
       <c r="W26" t="n">
-        <v>3529.180161237504</v>
+        <v>3529.180161237503</v>
       </c>
       <c r="X26" t="n">
-        <v>3155.714402976424</v>
+        <v>3155.714402976423</v>
       </c>
       <c r="Y26" t="n">
-        <v>2765.575071000612</v>
+        <v>2765.575071000611</v>
       </c>
     </row>
     <row r="27">
@@ -6297,22 +6297,22 @@
         <v>197.1732912847673</v>
       </c>
       <c r="H27" t="n">
-        <v>106.1926529945413</v>
+        <v>106.1926529945412</v>
       </c>
       <c r="I27" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J27" t="n">
-        <v>252.7486774534993</v>
+        <v>252.7486774534988</v>
       </c>
       <c r="K27" t="n">
-        <v>483.1676632239782</v>
+        <v>483.1676632239779</v>
       </c>
       <c r="L27" t="n">
-        <v>839.3169662165326</v>
+        <v>839.3169662165324</v>
       </c>
       <c r="M27" t="n">
-        <v>1274.283272503735</v>
+        <v>1274.283272503734</v>
       </c>
       <c r="N27" t="n">
         <v>1735.170487551467</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>263.4510896081521</v>
+        <v>1001.570116792925</v>
       </c>
       <c r="C28" t="n">
-        <v>263.4510896081521</v>
+        <v>832.6339338650183</v>
       </c>
       <c r="D28" t="n">
-        <v>263.4510896081521</v>
+        <v>682.5172944526826</v>
       </c>
       <c r="E28" t="n">
-        <v>263.4510896081521</v>
+        <v>534.6042008702894</v>
       </c>
       <c r="F28" t="n">
-        <v>263.4510896081521</v>
+        <v>387.7142533723791</v>
       </c>
       <c r="G28" t="n">
-        <v>95.70669497895823</v>
+        <v>219.9698587431852</v>
       </c>
       <c r="H28" t="n">
         <v>95.70669497895823</v>
@@ -6385,49 +6385,49 @@
         <v>137.9496457517058</v>
       </c>
       <c r="K28" t="n">
-        <v>337.2046271066356</v>
+        <v>337.2046271066357</v>
       </c>
       <c r="L28" t="n">
-        <v>647.7088367548654</v>
+        <v>647.7088367548656</v>
       </c>
       <c r="M28" t="n">
-        <v>985.4811130207351</v>
+        <v>985.4811130207354</v>
       </c>
       <c r="N28" t="n">
-        <v>1320.656535937014</v>
+        <v>1320.656535937015</v>
       </c>
       <c r="O28" t="n">
         <v>1614.228993199941</v>
       </c>
       <c r="P28" t="n">
-        <v>1841.910264368665</v>
+        <v>1841.910264368666</v>
       </c>
       <c r="Q28" t="n">
         <v>1916.109894724479</v>
       </c>
       <c r="R28" t="n">
-        <v>1824.410838506074</v>
+        <v>1824.410838506075</v>
       </c>
       <c r="S28" t="n">
-        <v>1767.384193014309</v>
+        <v>1632.000711664712</v>
       </c>
       <c r="T28" t="n">
-        <v>1545.440011567117</v>
+        <v>1632.000711664712</v>
       </c>
       <c r="U28" t="n">
-        <v>1256.334877892547</v>
+        <v>1632.000711664712</v>
       </c>
       <c r="V28" t="n">
-        <v>1001.65038968666</v>
+        <v>1632.000711664712</v>
       </c>
       <c r="W28" t="n">
-        <v>712.2332196496995</v>
+        <v>1632.000711664712</v>
       </c>
       <c r="X28" t="n">
-        <v>484.2436687516822</v>
+        <v>1404.011160766695</v>
       </c>
       <c r="Y28" t="n">
-        <v>263.4510896081521</v>
+        <v>1183.218581623165</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2378.97523093649</v>
+        <v>2378.975230936489</v>
       </c>
       <c r="C29" t="n">
-        <v>2010.012713996079</v>
+        <v>2010.012713996078</v>
       </c>
       <c r="D29" t="n">
-        <v>1651.747015389329</v>
+        <v>1651.747015389328</v>
       </c>
       <c r="E29" t="n">
-        <v>1265.958762791085</v>
+        <v>1265.958762791084</v>
       </c>
       <c r="F29" t="n">
-        <v>854.9728580014771</v>
+        <v>854.9728580014763</v>
       </c>
       <c r="G29" t="n">
-        <v>439.8077614055901</v>
+        <v>439.8077614055892</v>
       </c>
       <c r="H29" t="n">
-        <v>141.2753456516568</v>
+        <v>141.2753456516566</v>
       </c>
       <c r="I29" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J29" t="n">
-        <v>351.8368210304324</v>
+        <v>444.2847027885401</v>
       </c>
       <c r="K29" t="n">
-        <v>674.1057410123449</v>
+        <v>847.8051588108216</v>
       </c>
       <c r="L29" t="n">
-        <v>1110.810595075079</v>
+        <v>1697.994615278501</v>
       </c>
       <c r="M29" t="n">
-        <v>2073.416724838914</v>
+        <v>2660.600745042338</v>
       </c>
       <c r="N29" t="n">
-        <v>3036.966830610241</v>
+        <v>3624.150850813664</v>
       </c>
       <c r="O29" t="n">
-        <v>3901.632234595286</v>
+        <v>4111.824075348592</v>
       </c>
       <c r="P29" t="n">
-        <v>4283.349048158085</v>
+        <v>4493.540888911391</v>
       </c>
       <c r="Q29" t="n">
         <v>4732.021572313623</v>
@@ -6488,25 +6488,25 @@
         <v>4785.334748947911</v>
       </c>
       <c r="S29" t="n">
-        <v>4672.93289970337</v>
+        <v>4672.932899703368</v>
       </c>
       <c r="T29" t="n">
-        <v>4466.549592292624</v>
+        <v>4466.549592292623</v>
       </c>
       <c r="U29" t="n">
-        <v>4213.011703851189</v>
+        <v>4213.011703851188</v>
       </c>
       <c r="V29" t="n">
-        <v>3881.948816507618</v>
+        <v>3881.948816507617</v>
       </c>
       <c r="W29" t="n">
-        <v>3529.180161237504</v>
+        <v>3529.180161237503</v>
       </c>
       <c r="X29" t="n">
-        <v>3155.714402976424</v>
+        <v>3155.714402976423</v>
       </c>
       <c r="Y29" t="n">
-        <v>2765.575071000612</v>
+        <v>2765.575071000611</v>
       </c>
     </row>
     <row r="30">
@@ -6534,22 +6534,22 @@
         <v>197.1732912847673</v>
       </c>
       <c r="H30" t="n">
-        <v>106.1926529945413</v>
+        <v>106.1926529945412</v>
       </c>
       <c r="I30" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J30" t="n">
-        <v>252.7486774534993</v>
+        <v>252.7486774534988</v>
       </c>
       <c r="K30" t="n">
-        <v>483.1676632239782</v>
+        <v>483.1676632239779</v>
       </c>
       <c r="L30" t="n">
-        <v>839.3169662165326</v>
+        <v>839.3169662165324</v>
       </c>
       <c r="M30" t="n">
-        <v>1274.283272503735</v>
+        <v>1274.283272503734</v>
       </c>
       <c r="N30" t="n">
         <v>1735.170487551467</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.70669497895823</v>
+        <v>974.5559743625578</v>
       </c>
       <c r="C31" t="n">
-        <v>95.70669497895823</v>
+        <v>805.6197914346509</v>
       </c>
       <c r="D31" t="n">
-        <v>95.70669497895823</v>
+        <v>655.5031520223151</v>
       </c>
       <c r="E31" t="n">
-        <v>95.70669497895823</v>
+        <v>655.5031520223151</v>
       </c>
       <c r="F31" t="n">
-        <v>95.70669497895823</v>
+        <v>508.6132045244048</v>
       </c>
       <c r="G31" t="n">
-        <v>95.70669497895823</v>
+        <v>340.8688098952109</v>
       </c>
       <c r="H31" t="n">
-        <v>95.70669497895823</v>
+        <v>194.2821346782806</v>
       </c>
       <c r="I31" t="n">
         <v>95.70669497895823</v>
@@ -6622,22 +6622,22 @@
         <v>137.9496457517058</v>
       </c>
       <c r="K31" t="n">
-        <v>337.2046271066356</v>
+        <v>337.2046271066357</v>
       </c>
       <c r="L31" t="n">
-        <v>647.7088367548654</v>
+        <v>647.7088367548656</v>
       </c>
       <c r="M31" t="n">
-        <v>985.4811130207351</v>
+        <v>985.4811130207354</v>
       </c>
       <c r="N31" t="n">
-        <v>1320.656535937014</v>
+        <v>1320.656535937015</v>
       </c>
       <c r="O31" t="n">
         <v>1614.228993199941</v>
       </c>
       <c r="P31" t="n">
-        <v>1841.910264368665</v>
+        <v>1841.910264368666</v>
       </c>
       <c r="Q31" t="n">
         <v>1916.109894724479</v>
@@ -6646,25 +6646,25 @@
         <v>1916.109894724479</v>
       </c>
       <c r="S31" t="n">
-        <v>1723.699767883116</v>
+        <v>1723.699767883117</v>
       </c>
       <c r="T31" t="n">
-        <v>1501.755586435924</v>
+        <v>1723.699767883117</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.238948093593</v>
+        <v>1434.594634208547</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.554459887706</v>
+        <v>1434.594634208547</v>
       </c>
       <c r="W31" t="n">
-        <v>726.1372898507453</v>
+        <v>1434.594634208547</v>
       </c>
       <c r="X31" t="n">
-        <v>498.147738952728</v>
+        <v>1376.997018336328</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.3551598091979</v>
+        <v>1156.204439192798</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2378.97523093649</v>
+        <v>2378.975230936489</v>
       </c>
       <c r="C32" t="n">
-        <v>2010.012713996079</v>
+        <v>2010.012713996078</v>
       </c>
       <c r="D32" t="n">
-        <v>1651.747015389329</v>
+        <v>1651.747015389328</v>
       </c>
       <c r="E32" t="n">
-        <v>1265.958762791085</v>
+        <v>1265.958762791084</v>
       </c>
       <c r="F32" t="n">
-        <v>854.9728580014771</v>
+        <v>854.9728580014763</v>
       </c>
       <c r="G32" t="n">
-        <v>439.8077614055893</v>
+        <v>439.8077614055892</v>
       </c>
       <c r="H32" t="n">
-        <v>141.2753456516568</v>
+        <v>141.2753456516566</v>
       </c>
       <c r="I32" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J32" t="n">
-        <v>429.7371321537009</v>
+        <v>276.8790537681871</v>
       </c>
       <c r="K32" t="n">
-        <v>752.0060521356133</v>
+        <v>920.0519321955528</v>
       </c>
       <c r="L32" t="n">
-        <v>1602.195508603293</v>
+        <v>1753.975890996247</v>
       </c>
       <c r="M32" t="n">
-        <v>2564.801638367129</v>
+        <v>2716.582020760084</v>
       </c>
       <c r="N32" t="n">
-        <v>3095.378288970591</v>
+        <v>3247.158671363546</v>
       </c>
       <c r="O32" t="n">
-        <v>3583.051513505518</v>
+        <v>4111.824075348592</v>
       </c>
       <c r="P32" t="n">
-        <v>4283.349048158085</v>
+        <v>4493.540888911391</v>
       </c>
       <c r="Q32" t="n">
         <v>4732.021572313623</v>
@@ -6725,25 +6725,25 @@
         <v>4785.334748947911</v>
       </c>
       <c r="S32" t="n">
-        <v>4672.93289970337</v>
+        <v>4672.932899703368</v>
       </c>
       <c r="T32" t="n">
-        <v>4466.549592292624</v>
+        <v>4466.549592292623</v>
       </c>
       <c r="U32" t="n">
-        <v>4213.011703851189</v>
+        <v>4213.011703851188</v>
       </c>
       <c r="V32" t="n">
-        <v>3881.948816507618</v>
+        <v>3881.948816507617</v>
       </c>
       <c r="W32" t="n">
-        <v>3529.180161237504</v>
+        <v>3529.180161237503</v>
       </c>
       <c r="X32" t="n">
-        <v>3155.714402976424</v>
+        <v>3155.714402976423</v>
       </c>
       <c r="Y32" t="n">
-        <v>2765.575071000612</v>
+        <v>2765.575071000611</v>
       </c>
     </row>
     <row r="33">
@@ -6771,22 +6771,22 @@
         <v>197.1732912847673</v>
       </c>
       <c r="H33" t="n">
-        <v>106.1926529945413</v>
+        <v>106.1926529945412</v>
       </c>
       <c r="I33" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J33" t="n">
-        <v>252.7486774534993</v>
+        <v>252.7486774534988</v>
       </c>
       <c r="K33" t="n">
-        <v>483.1676632239782</v>
+        <v>483.1676632239779</v>
       </c>
       <c r="L33" t="n">
-        <v>839.3169662165326</v>
+        <v>839.3169662165324</v>
       </c>
       <c r="M33" t="n">
-        <v>1274.283272503735</v>
+        <v>1274.283272503734</v>
       </c>
       <c r="N33" t="n">
         <v>1735.170487551467</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>777.1639828967792</v>
+        <v>777.163982896779</v>
       </c>
       <c r="C34" t="n">
-        <v>657.5570978328968</v>
+        <v>657.5570978328966</v>
       </c>
       <c r="D34" t="n">
-        <v>556.7697562845856</v>
+        <v>556.7697562845854</v>
       </c>
       <c r="E34" t="n">
-        <v>458.185960566217</v>
+        <v>458.1859605662167</v>
       </c>
       <c r="F34" t="n">
-        <v>360.6253109323311</v>
+        <v>360.6253109323312</v>
       </c>
       <c r="G34" t="n">
         <v>242.2102141671619</v>
@@ -6859,10 +6859,10 @@
         <v>186.2972905882362</v>
       </c>
       <c r="K34" t="n">
-        <v>433.8999167796964</v>
+        <v>433.8999167796965</v>
       </c>
       <c r="L34" t="n">
-        <v>792.7517712644566</v>
+        <v>792.7517712644567</v>
       </c>
       <c r="M34" t="n">
         <v>1178.871692366857</v>
@@ -6871,19 +6871,19 @@
         <v>1562.394760119666</v>
       </c>
       <c r="O34" t="n">
-        <v>1904.314862219123</v>
+        <v>1904.314862219124</v>
       </c>
       <c r="P34" t="n">
-        <v>2180.343778224378</v>
+        <v>2180.343778224379</v>
       </c>
       <c r="Q34" t="n">
-        <v>2302.891053416722</v>
+        <v>2302.891053416723</v>
       </c>
       <c r="R34" t="n">
-        <v>2260.521295062342</v>
+        <v>2260.521295062343</v>
       </c>
       <c r="S34" t="n">
-        <v>2117.440466085004</v>
+        <v>2117.440466085005</v>
       </c>
       <c r="T34" t="n">
         <v>1944.825582501837</v>
@@ -6901,7 +6901,7 @@
         <v>1080.9464311425</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.4831498629944</v>
+        <v>909.4831498629942</v>
       </c>
     </row>
     <row r="35">
@@ -6917,55 +6917,55 @@
         <v>2010.012713996079</v>
       </c>
       <c r="D35" t="n">
-        <v>1651.747015389328</v>
+        <v>1651.747015389329</v>
       </c>
       <c r="E35" t="n">
-        <v>1265.958762791084</v>
+        <v>1265.958762791085</v>
       </c>
       <c r="F35" t="n">
-        <v>854.9728580014764</v>
+        <v>854.9728580014771</v>
       </c>
       <c r="G35" t="n">
-        <v>439.8077614055893</v>
+        <v>439.8077614055901</v>
       </c>
       <c r="H35" t="n">
         <v>141.2753456516567</v>
       </c>
       <c r="I35" t="n">
-        <v>95.70669497895821</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="J35" t="n">
-        <v>444.28470278854</v>
+        <v>276.8790537681871</v>
       </c>
       <c r="K35" t="n">
-        <v>1087.457581215906</v>
+        <v>599.1479737500997</v>
       </c>
       <c r="L35" t="n">
-        <v>1670.221727311078</v>
+        <v>1449.337430217779</v>
       </c>
       <c r="M35" t="n">
-        <v>2187.80945891701</v>
+        <v>2411.943559981616</v>
       </c>
       <c r="N35" t="n">
-        <v>2718.386109520472</v>
+        <v>3375.493665752942</v>
       </c>
       <c r="O35" t="n">
-        <v>3583.051513505518</v>
+        <v>4111.824075348592</v>
       </c>
       <c r="P35" t="n">
-        <v>4283.349048158084</v>
+        <v>4493.540888911391</v>
       </c>
       <c r="Q35" t="n">
-        <v>4732.021572313622</v>
+        <v>4732.021572313623</v>
       </c>
       <c r="R35" t="n">
-        <v>4785.33474894791</v>
+        <v>4785.334748947911</v>
       </c>
       <c r="S35" t="n">
-        <v>4672.932899703369</v>
+        <v>4672.93289970337</v>
       </c>
       <c r="T35" t="n">
-        <v>4466.549592292623</v>
+        <v>4466.549592292624</v>
       </c>
       <c r="U35" t="n">
         <v>4213.011703851189</v>
@@ -7011,19 +7011,19 @@
         <v>106.1926529945412</v>
       </c>
       <c r="I36" t="n">
-        <v>95.70669497895821</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="J36" t="n">
-        <v>252.7486774534993</v>
+        <v>252.7486774534988</v>
       </c>
       <c r="K36" t="n">
-        <v>483.1676632239782</v>
+        <v>483.1676632239779</v>
       </c>
       <c r="L36" t="n">
-        <v>839.3169662165326</v>
+        <v>839.3169662165324</v>
       </c>
       <c r="M36" t="n">
-        <v>1274.283272503735</v>
+        <v>1274.283272503734</v>
       </c>
       <c r="N36" t="n">
         <v>1735.170487551467</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>777.1639828967791</v>
+        <v>777.1639828967795</v>
       </c>
       <c r="C37" t="n">
-        <v>657.5570978328967</v>
+        <v>657.5570978328972</v>
       </c>
       <c r="D37" t="n">
-        <v>556.7697562845856</v>
+        <v>556.7697562845859</v>
       </c>
       <c r="E37" t="n">
-        <v>458.1859605662169</v>
+        <v>458.1859605662173</v>
       </c>
       <c r="F37" t="n">
-        <v>360.625310932331</v>
+        <v>360.6253109323317</v>
       </c>
       <c r="G37" t="n">
-        <v>242.2102141671618</v>
+        <v>242.2102141671623</v>
       </c>
       <c r="H37" t="n">
-        <v>144.952836814256</v>
+        <v>144.9528368142561</v>
       </c>
       <c r="I37" t="n">
-        <v>95.70669497895821</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="J37" t="n">
-        <v>186.2972905882361</v>
+        <v>186.2972905882365</v>
       </c>
       <c r="K37" t="n">
-        <v>433.8999167796964</v>
+        <v>433.8999167796968</v>
       </c>
       <c r="L37" t="n">
-        <v>792.7517712644569</v>
+        <v>792.751771264457</v>
       </c>
       <c r="M37" t="n">
         <v>1178.871692366857</v>
@@ -7108,25 +7108,25 @@
         <v>1562.394760119667</v>
       </c>
       <c r="O37" t="n">
-        <v>1904.314862219123</v>
+        <v>1904.314862219124</v>
       </c>
       <c r="P37" t="n">
-        <v>2180.343778224378</v>
+        <v>2180.343778224379</v>
       </c>
       <c r="Q37" t="n">
-        <v>2302.891053416722</v>
+        <v>2302.891053416723</v>
       </c>
       <c r="R37" t="n">
-        <v>2260.521295062342</v>
+        <v>2260.521295062343</v>
       </c>
       <c r="S37" t="n">
-        <v>2117.440466085004</v>
+        <v>2117.440466085005</v>
       </c>
       <c r="T37" t="n">
         <v>1944.825582501837</v>
       </c>
       <c r="U37" t="n">
-        <v>1705.049746691291</v>
+        <v>1705.049746691292</v>
       </c>
       <c r="V37" t="n">
         <v>1499.694556349429</v>
@@ -7138,7 +7138,7 @@
         <v>1080.9464311425</v>
       </c>
       <c r="Y37" t="n">
-        <v>909.4831498629944</v>
+        <v>909.4831498629947</v>
       </c>
     </row>
     <row r="38">
@@ -7169,49 +7169,49 @@
         <v>141.2753456516567</v>
       </c>
       <c r="I38" t="n">
-        <v>95.70669497895821</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="J38" t="n">
-        <v>444.28470278854</v>
+        <v>276.8790537681871</v>
       </c>
       <c r="K38" t="n">
-        <v>1087.457581215906</v>
+        <v>915.8313775186081</v>
       </c>
       <c r="L38" t="n">
-        <v>1670.221727311078</v>
+        <v>1766.020833986288</v>
       </c>
       <c r="M38" t="n">
-        <v>2187.80945891701</v>
+        <v>2283.60856559222</v>
       </c>
       <c r="N38" t="n">
-        <v>2718.386109520472</v>
+        <v>3247.158671363546</v>
       </c>
       <c r="O38" t="n">
-        <v>3583.051513505518</v>
+        <v>4111.824075348592</v>
       </c>
       <c r="P38" t="n">
-        <v>4283.349048158084</v>
+        <v>4493.540888911391</v>
       </c>
       <c r="Q38" t="n">
-        <v>4732.021572313622</v>
+        <v>4732.021572313623</v>
       </c>
       <c r="R38" t="n">
-        <v>4785.33474894791</v>
+        <v>4785.334748947911</v>
       </c>
       <c r="S38" t="n">
-        <v>4672.932899703369</v>
+        <v>4672.93289970337</v>
       </c>
       <c r="T38" t="n">
-        <v>4466.549592292623</v>
+        <v>4466.549592292624</v>
       </c>
       <c r="U38" t="n">
-        <v>4213.011703851189</v>
+        <v>4213.01170385119</v>
       </c>
       <c r="V38" t="n">
-        <v>3881.948816507618</v>
+        <v>3881.948816507619</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.180161237504</v>
+        <v>3529.180161237505</v>
       </c>
       <c r="X38" t="n">
         <v>3155.714402976424</v>
@@ -7248,16 +7248,16 @@
         <v>106.1926529945412</v>
       </c>
       <c r="I39" t="n">
-        <v>95.70669497895821</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="J39" t="n">
         <v>184.7938637619196</v>
       </c>
       <c r="K39" t="n">
-        <v>415.2128495323985</v>
+        <v>415.2128495323986</v>
       </c>
       <c r="L39" t="n">
-        <v>771.362152524953</v>
+        <v>771.3621525249532</v>
       </c>
       <c r="M39" t="n">
         <v>1206.328458812155</v>
@@ -7269,7 +7269,7 @@
         <v>2066.617638803767</v>
       </c>
       <c r="P39" t="n">
-        <v>2367.839861327178</v>
+        <v>2367.839861327179</v>
       </c>
       <c r="Q39" t="n">
         <v>2587.234557209454</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>777.1639828967784</v>
+        <v>777.1639828967791</v>
       </c>
       <c r="C40" t="n">
-        <v>657.5570978328963</v>
+        <v>657.5570978328967</v>
       </c>
       <c r="D40" t="n">
-        <v>556.769756284585</v>
+        <v>556.7697562845855</v>
       </c>
       <c r="E40" t="n">
-        <v>458.1859605662164</v>
+        <v>458.1859605662169</v>
       </c>
       <c r="F40" t="n">
-        <v>360.6253109323305</v>
+        <v>360.625310932331</v>
       </c>
       <c r="G40" t="n">
-        <v>242.2102141671612</v>
+        <v>242.2102141671617</v>
       </c>
       <c r="H40" t="n">
-        <v>144.9528368142554</v>
+        <v>144.9528368142561</v>
       </c>
       <c r="I40" t="n">
-        <v>95.70669497895821</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="J40" t="n">
-        <v>186.2972905882361</v>
+        <v>186.2972905882362</v>
       </c>
       <c r="K40" t="n">
-        <v>433.8999167796962</v>
+        <v>433.8999167796964</v>
       </c>
       <c r="L40" t="n">
-        <v>792.7517712644562</v>
+        <v>792.7517712644567</v>
       </c>
       <c r="M40" t="n">
-        <v>1178.871692366856</v>
+        <v>1178.871692366857</v>
       </c>
       <c r="N40" t="n">
         <v>1562.394760119666</v>
@@ -7348,7 +7348,7 @@
         <v>1904.314862219123</v>
       </c>
       <c r="P40" t="n">
-        <v>2180.343778224378</v>
+        <v>2180.343778224379</v>
       </c>
       <c r="Q40" t="n">
         <v>2302.891053416722</v>
@@ -7360,22 +7360,22 @@
         <v>2117.440466085004</v>
       </c>
       <c r="T40" t="n">
-        <v>1944.825582501836</v>
+        <v>1944.825582501837</v>
       </c>
       <c r="U40" t="n">
         <v>1705.049746691291</v>
       </c>
       <c r="V40" t="n">
-        <v>1499.694556349428</v>
+        <v>1499.694556349429</v>
       </c>
       <c r="W40" t="n">
-        <v>1259.606684176492</v>
+        <v>1259.606684176493</v>
       </c>
       <c r="X40" t="n">
-        <v>1080.946431142499</v>
+        <v>1080.9464311425</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.4831498629936</v>
+        <v>909.4831498629943</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2378.97523093649</v>
+        <v>2378.975230936491</v>
       </c>
       <c r="C41" t="n">
-        <v>2010.012713996079</v>
+        <v>2010.01271399608</v>
       </c>
       <c r="D41" t="n">
-        <v>1651.747015389328</v>
+        <v>1651.747015389329</v>
       </c>
       <c r="E41" t="n">
-        <v>1265.958762791084</v>
+        <v>1265.958762791085</v>
       </c>
       <c r="F41" t="n">
-        <v>854.9728580014764</v>
+        <v>854.9728580014773</v>
       </c>
       <c r="G41" t="n">
-        <v>439.8077614055892</v>
+        <v>439.8077614055902</v>
       </c>
       <c r="H41" t="n">
         <v>141.2753456516567</v>
       </c>
       <c r="I41" t="n">
-        <v>95.70669497895821</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="J41" t="n">
-        <v>276.8790537681871</v>
+        <v>321.9919774950868</v>
       </c>
       <c r="K41" t="n">
-        <v>920.0519321955526</v>
+        <v>965.1648559224524</v>
       </c>
       <c r="L41" t="n">
-        <v>1770.241388663232</v>
+        <v>1815.354312390132</v>
       </c>
       <c r="M41" t="n">
-        <v>2287.829120269164</v>
+        <v>2332.942043996064</v>
       </c>
       <c r="N41" t="n">
-        <v>3251.37922604049</v>
+        <v>2863.518694599526</v>
       </c>
       <c r="O41" t="n">
-        <v>3739.052450575418</v>
+        <v>3728.184098584572</v>
       </c>
       <c r="P41" t="n">
-        <v>4439.349985227985</v>
+        <v>4428.481633237138</v>
       </c>
       <c r="Q41" t="n">
-        <v>4677.830668630217</v>
+        <v>4666.96231663937</v>
       </c>
       <c r="R41" t="n">
-        <v>4785.33474894791</v>
+        <v>4785.334748947911</v>
       </c>
       <c r="S41" t="n">
-        <v>4672.932899703369</v>
+        <v>4672.93289970337</v>
       </c>
       <c r="T41" t="n">
-        <v>4466.549592292623</v>
+        <v>4466.549592292624</v>
       </c>
       <c r="U41" t="n">
-        <v>4213.011703851189</v>
+        <v>4213.01170385119</v>
       </c>
       <c r="V41" t="n">
-        <v>3881.948816507618</v>
+        <v>3881.948816507619</v>
       </c>
       <c r="W41" t="n">
-        <v>3529.180161237504</v>
+        <v>3529.180161237505</v>
       </c>
       <c r="X41" t="n">
-        <v>3155.714402976424</v>
+        <v>3155.714402976425</v>
       </c>
       <c r="Y41" t="n">
-        <v>2765.575071000612</v>
+        <v>2765.575071000613</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7485,19 @@
         <v>106.1926529945412</v>
       </c>
       <c r="I42" t="n">
-        <v>95.70669497895821</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="J42" t="n">
-        <v>252.7486774534993</v>
+        <v>252.7486774534988</v>
       </c>
       <c r="K42" t="n">
-        <v>483.1676632239782</v>
+        <v>483.1676632239779</v>
       </c>
       <c r="L42" t="n">
-        <v>839.3169662165326</v>
+        <v>839.3169662165324</v>
       </c>
       <c r="M42" t="n">
-        <v>1274.283272503735</v>
+        <v>1274.283272503734</v>
       </c>
       <c r="N42" t="n">
         <v>1735.170487551467</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>777.1639828967789</v>
+        <v>777.1639828967793</v>
       </c>
       <c r="C43" t="n">
-        <v>657.5570978328965</v>
+        <v>657.5570978328969</v>
       </c>
       <c r="D43" t="n">
-        <v>556.7697562845854</v>
+        <v>556.7697562845857</v>
       </c>
       <c r="E43" t="n">
-        <v>458.1859605662168</v>
+        <v>458.1859605662171</v>
       </c>
       <c r="F43" t="n">
-        <v>360.625310932331</v>
+        <v>360.6253109323312</v>
       </c>
       <c r="G43" t="n">
-        <v>242.2102141671617</v>
+        <v>242.2102141671619</v>
       </c>
       <c r="H43" t="n">
-        <v>144.952836814256</v>
+        <v>144.9528368142561</v>
       </c>
       <c r="I43" t="n">
-        <v>95.70669497895821</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="J43" t="n">
-        <v>186.2972905882363</v>
+        <v>186.2972905882362</v>
       </c>
       <c r="K43" t="n">
         <v>433.8999167796965</v>
       </c>
       <c r="L43" t="n">
-        <v>792.7517712644567</v>
+        <v>792.7517712644569</v>
       </c>
       <c r="M43" t="n">
         <v>1178.871692366857</v>
@@ -7588,16 +7588,16 @@
         <v>2180.343778224379</v>
       </c>
       <c r="Q43" t="n">
-        <v>2302.891053416722</v>
+        <v>2302.891053416723</v>
       </c>
       <c r="R43" t="n">
-        <v>2260.521295062342</v>
+        <v>2260.521295062343</v>
       </c>
       <c r="S43" t="n">
-        <v>2117.440466085004</v>
+        <v>2117.440466085005</v>
       </c>
       <c r="T43" t="n">
-        <v>1944.825582501836</v>
+        <v>1944.825582501837</v>
       </c>
       <c r="U43" t="n">
         <v>1705.049746691291</v>
@@ -7606,13 +7606,13 @@
         <v>1499.694556349429</v>
       </c>
       <c r="W43" t="n">
-        <v>1259.606684176492</v>
+        <v>1259.606684176493</v>
       </c>
       <c r="X43" t="n">
-        <v>1080.946431142499</v>
+        <v>1080.9464311425</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.483149862994</v>
+        <v>909.4831498629945</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>2010.012713996079</v>
       </c>
       <c r="D44" t="n">
-        <v>1651.747015389329</v>
+        <v>1651.747015389328</v>
       </c>
       <c r="E44" t="n">
-        <v>1265.958762791085</v>
+        <v>1265.958762791084</v>
       </c>
       <c r="F44" t="n">
-        <v>854.9728580014771</v>
+        <v>854.9728580014764</v>
       </c>
       <c r="G44" t="n">
-        <v>439.8077614055901</v>
+        <v>439.8077614055892</v>
       </c>
       <c r="H44" t="n">
         <v>141.2753456516567</v>
@@ -7646,25 +7646,25 @@
         <v>95.70669497895823</v>
       </c>
       <c r="J44" t="n">
-        <v>276.8790537681871</v>
+        <v>276.8790537681872</v>
       </c>
       <c r="K44" t="n">
-        <v>920.0519321955526</v>
+        <v>599.1479737500998</v>
       </c>
       <c r="L44" t="n">
-        <v>1770.241388663232</v>
+        <v>1449.33743021778</v>
       </c>
       <c r="M44" t="n">
-        <v>2287.829120269164</v>
+        <v>2411.943559981616</v>
       </c>
       <c r="N44" t="n">
-        <v>3251.37922604049</v>
+        <v>3375.493665752943</v>
       </c>
       <c r="O44" t="n">
-        <v>4111.824075348592</v>
+        <v>4111.824075348591</v>
       </c>
       <c r="P44" t="n">
-        <v>4493.540888911391</v>
+        <v>4493.54088891139</v>
       </c>
       <c r="Q44" t="n">
         <v>4732.021572313623</v>
@@ -7719,22 +7719,22 @@
         <v>197.1732912847673</v>
       </c>
       <c r="H45" t="n">
-        <v>106.1926529945413</v>
+        <v>106.1926529945412</v>
       </c>
       <c r="I45" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J45" t="n">
-        <v>252.7486774534993</v>
+        <v>252.7486774534982</v>
       </c>
       <c r="K45" t="n">
-        <v>483.1676632239782</v>
+        <v>483.1676632239773</v>
       </c>
       <c r="L45" t="n">
-        <v>839.3169662165326</v>
+        <v>839.3169662165319</v>
       </c>
       <c r="M45" t="n">
-        <v>1274.283272503735</v>
+        <v>1274.283272503734</v>
       </c>
       <c r="N45" t="n">
         <v>1735.170487551467</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>777.1639828967797</v>
+        <v>777.1639828967793</v>
       </c>
       <c r="C46" t="n">
-        <v>657.5570978328973</v>
+        <v>657.5570978328969</v>
       </c>
       <c r="D46" t="n">
-        <v>556.7697562845862</v>
+        <v>556.7697562845857</v>
       </c>
       <c r="E46" t="n">
-        <v>458.1859605662176</v>
+        <v>458.1859605662171</v>
       </c>
       <c r="F46" t="n">
-        <v>360.6253109323318</v>
+        <v>360.6253109323312</v>
       </c>
       <c r="G46" t="n">
-        <v>242.2102141671618</v>
+        <v>242.2102141671619</v>
       </c>
       <c r="H46" t="n">
-        <v>144.952836814256</v>
+        <v>144.9528368142561</v>
       </c>
       <c r="I46" t="n">
         <v>95.70669497895823</v>
@@ -7807,10 +7807,10 @@
         <v>186.2972905882363</v>
       </c>
       <c r="K46" t="n">
-        <v>433.8999167796965</v>
+        <v>433.899916779696</v>
       </c>
       <c r="L46" t="n">
-        <v>792.7517712644568</v>
+        <v>792.7517712644565</v>
       </c>
       <c r="M46" t="n">
         <v>1178.871692366857</v>
@@ -7819,7 +7819,7 @@
         <v>1562.394760119666</v>
       </c>
       <c r="O46" t="n">
-        <v>1904.314862219124</v>
+        <v>1904.314862219123</v>
       </c>
       <c r="P46" t="n">
         <v>2180.343778224379</v>
@@ -7849,7 +7849,7 @@
         <v>1080.9464311425</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.4831498629948</v>
+        <v>909.4831498629945</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>253.1661224803348</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>341.8356763348946</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>36.84178937599241</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,13 +8936,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>125.54671279403</v>
+        <v>334.9035744850331</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>68.6412259510906</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>68.64122595110089</v>
       </c>
       <c r="R15" t="n">
-        <v>3.189834512661463</v>
+        <v>3.189834512661861</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>81.8182185436238</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>44.95718525591906</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9243,13 +9243,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>68.64122595109058</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>68.64122595109058</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>81.8182185436238</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>251.1688737987085</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>68.64122595109012</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>68.64122595109052</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.189834512661463</v>
+        <v>3.189834512661434</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>44.95718525591803</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>251.1688737987085</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>68.6412259510906</v>
+        <v>68.64122595109012</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.189834512661463</v>
+        <v>3.189834512661434</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>288.0299070864141</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>44.95718525591906</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>68.6412259510906</v>
+        <v>68.64122595109012</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.189834512661463</v>
+        <v>3.189834512661434</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>75.71491642651046</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>82.07225862663523</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,13 +10124,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>68.6412259510906</v>
+        <v>68.64122595109012</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.189834512661463</v>
+        <v>3.189834512661434</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>154.4020993793069</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>401.2314189272331</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>68.6412259510906</v>
+        <v>68.64122595109012</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.189834512661463</v>
+        <v>3.189834512661434</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>147.534638416605</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>251.1688737987085</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>68.6412259510906</v>
+        <v>68.64122595109012</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.189834512661463</v>
+        <v>3.189834512661434</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>319.8822260287963</v>
       </c>
       <c r="L38" t="n">
-        <v>147.534638416605</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>68.64122595109043</v>
+        <v>68.64122595108992</v>
       </c>
       <c r="R39" t="n">
-        <v>3.189834512661463</v>
+        <v>3.189834512661434</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>45.56860982515116</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11069,10 +11069,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.73828654889407</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>68.6412259510906</v>
+        <v>68.64122595109012</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.189834512661463</v>
+        <v>3.189834512661434</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,19 +11297,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>376.5369947203776</v>
+        <v>251.1688737987071</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>68.6412259510906</v>
+        <v>68.64122595108944</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.189834512661463</v>
+        <v>3.189834512661406</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>131.8811375429348</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>232.864444629101</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>115.4650132714912</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>78.04080617813776</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>78.04080617813796</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>150.4857768315986</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5213508256977</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>111.2135484404742</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>198.4049807887626</v>
       </c>
       <c r="T13" t="n">
         <v>221.6662675155749</v>
@@ -23473,16 +23473,16 @@
         <v>286.2388678001585</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>282.6930601531261</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>32.71900185170617</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.78206565622071</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.7247396327203</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2140823378242</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>135.5989141389445</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>57.01261037891615</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23905,7 +23905,7 @@
         <v>166.0669506829019</v>
       </c>
       <c r="H19" t="n">
-        <v>67.20582911086061</v>
+        <v>145.120808464761</v>
       </c>
       <c r="I19" t="n">
         <v>97.58968530232914</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.78206565622048</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>111.3000058227614</v>
+        <v>114.3055185545659</v>
       </c>
       <c r="I22" t="n">
         <v>97.58968530232914</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.78206565622048</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>286.2140823378242</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.59353548886955</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0669506829019</v>
       </c>
       <c r="H25" t="n">
         <v>145.120808464761</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.78206565622048</v>
+        <v>90.78206565622045</v>
       </c>
       <c r="S25" t="n">
-        <v>190.486025572949</v>
+        <v>57.01261037891575</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.120808464761</v>
+        <v>22.10027633817629</v>
       </c>
       <c r="I28" t="n">
         <v>97.58968530232914</v>
@@ -24649,19 +24649,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>134.0296465361016</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.7247396327202</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2140823378242</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0669506829019</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.120808464761</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.58968530232914</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.78206565622048</v>
+        <v>90.78206565622045</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.7247396327202</v>
       </c>
       <c r="U31" t="n">
-        <v>57.01261037891635</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>168.6880156755402</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79331.4745015396</v>
+        <v>79331.47450153956</v>
       </c>
       <c r="C2" t="n">
         <v>82104.17698642833</v>
@@ -26320,40 +26320,40 @@
         <v>82104.17698642831</v>
       </c>
       <c r="E2" t="n">
-        <v>77512.70744453248</v>
+        <v>77512.70744453251</v>
       </c>
       <c r="F2" t="n">
-        <v>79309.88236577678</v>
+        <v>79309.88236577687</v>
       </c>
       <c r="G2" t="n">
-        <v>79309.88236577678</v>
+        <v>79309.88236577675</v>
       </c>
       <c r="H2" t="n">
         <v>79309.88236577676</v>
       </c>
       <c r="I2" t="n">
-        <v>79309.88236577671</v>
+        <v>79309.88236577676</v>
       </c>
       <c r="J2" t="n">
-        <v>79309.88236577674</v>
+        <v>79309.88236577676</v>
       </c>
       <c r="K2" t="n">
-        <v>79309.88236577676</v>
+        <v>79309.88236577678</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="O2" t="n">
         <v>82104.17698642833</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642836</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,10 +26375,10 @@
         <v>507145.2021754108</v>
       </c>
       <c r="F3" t="n">
-        <v>199180.7052109519</v>
+        <v>199180.7052109495</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.298140998391319e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>39068.80390830721</v>
+        <v>39068.80390830754</v>
       </c>
       <c r="M3" t="n">
         <v>130096.0546746775</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>176380.9235052241</v>
       </c>
       <c r="C4" t="n">
+        <v>192206.5963924298</v>
+      </c>
+      <c r="D4" t="n">
         <v>192206.5963924297</v>
-      </c>
-      <c r="D4" t="n">
-        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
         <v>43904.52791521024</v>
       </c>
       <c r="F4" t="n">
+        <v>23547.71004398587</v>
+      </c>
+      <c r="G4" t="n">
         <v>23547.71004398564</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>23547.71004398557</v>
+      </c>
+      <c r="I4" t="n">
         <v>23547.71004398561</v>
       </c>
-      <c r="H4" t="n">
-        <v>23547.71004398559</v>
-      </c>
-      <c r="I4" t="n">
-        <v>23547.71004398563</v>
-      </c>
       <c r="J4" t="n">
-        <v>23547.71004398564</v>
+        <v>23547.71004398562</v>
       </c>
       <c r="K4" t="n">
-        <v>23547.71004398563</v>
+        <v>23547.71004398562</v>
       </c>
       <c r="L4" t="n">
-        <v>39617.18941933042</v>
+        <v>39617.1894193304</v>
       </c>
       <c r="M4" t="n">
-        <v>39617.18941933042</v>
+        <v>39617.1894193304</v>
       </c>
       <c r="N4" t="n">
-        <v>39617.1894193304</v>
+        <v>39617.18941933036</v>
       </c>
       <c r="O4" t="n">
-        <v>39617.18941933041</v>
+        <v>39617.18941933037</v>
       </c>
       <c r="P4" t="n">
-        <v>39617.18941933043</v>
+        <v>39617.18941933034</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26479,7 +26479,7 @@
         <v>90503.56111915126</v>
       </c>
       <c r="F5" t="n">
-        <v>95996.84575451331</v>
+        <v>95996.84575451324</v>
       </c>
       <c r="G5" t="n">
         <v>95996.84575451331</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-769876.4062816383</v>
+        <v>-769945.7238437608</v>
       </c>
       <c r="C6" t="n">
         <v>-192961.4974694109</v>
@@ -26528,40 +26528,40 @@
         <v>-192961.4974694109</v>
       </c>
       <c r="E6" t="n">
-        <v>-564040.5837652398</v>
+        <v>-564155.3705037872</v>
       </c>
       <c r="F6" t="n">
-        <v>-239415.378643674</v>
+        <v>-239485.236009188</v>
       </c>
       <c r="G6" t="n">
-        <v>-40234.67343272215</v>
+        <v>-40304.5307982408</v>
       </c>
       <c r="H6" t="n">
-        <v>-40234.67343272214</v>
+        <v>-40304.53079823841</v>
       </c>
       <c r="I6" t="n">
-        <v>-40234.67343272224</v>
+        <v>-40304.53079823845</v>
       </c>
       <c r="J6" t="n">
-        <v>-216657.8926253152</v>
+        <v>-216727.7499908314</v>
       </c>
       <c r="K6" t="n">
-        <v>-40234.67343272218</v>
+        <v>-40304.53079823844</v>
       </c>
       <c r="L6" t="n">
-        <v>-96684.25619043197</v>
+        <v>-96684.25619043229</v>
       </c>
       <c r="M6" t="n">
         <v>-187711.5069568023</v>
       </c>
       <c r="N6" t="n">
-        <v>-57615.45228212466</v>
+        <v>-57615.45228212468</v>
       </c>
       <c r="O6" t="n">
-        <v>-57615.45228212479</v>
+        <v>-57615.45228212472</v>
       </c>
       <c r="P6" t="n">
-        <v>-57615.45228212477</v>
+        <v>-57615.45228212467</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="M2" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="N2" t="n">
         <v>48.83600488538423</v>
       </c>
       <c r="O2" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="P2" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,37 +26747,37 @@
         <v>814.9758227129824</v>
       </c>
       <c r="F3" t="n">
-        <v>1066.961356445186</v>
+        <v>1066.961356445183</v>
       </c>
       <c r="G3" t="n">
         <v>1066.961356445186</v>
       </c>
       <c r="H3" t="n">
-        <v>1066.961356445186</v>
+        <v>1066.961356445187</v>
       </c>
       <c r="I3" t="n">
-        <v>1066.961356445186</v>
+        <v>1066.961356445187</v>
       </c>
       <c r="J3" t="n">
-        <v>1066.961356445186</v>
+        <v>1066.961356445187</v>
       </c>
       <c r="K3" t="n">
-        <v>1066.961356445186</v>
+        <v>1066.961356445187</v>
       </c>
       <c r="L3" t="n">
-        <v>1066.961356445186</v>
+        <v>1066.961356445187</v>
       </c>
       <c r="M3" t="n">
-        <v>1066.961356445186</v>
+        <v>1066.961356445187</v>
       </c>
       <c r="N3" t="n">
-        <v>1066.961356445186</v>
+        <v>1066.961356445187</v>
       </c>
       <c r="O3" t="n">
-        <v>1066.961356445186</v>
+        <v>1066.961356445187</v>
       </c>
       <c r="P3" t="n">
-        <v>1066.961356445186</v>
+        <v>1066.961356445187</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,10 +26969,10 @@
         <v>437.2321584958958</v>
       </c>
       <c r="F3" t="n">
-        <v>251.9855337322039</v>
+        <v>251.9855337322009</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.846784014906516e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0464144824219</v>
+        <v>522.0464144824222</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>206.8536000997153</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>233.7759554459218</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>6.468597966998885</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>138.9191069150245</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>290.6609893234194</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>351.7374786276615</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>239.7050258819453</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>195.6199142514945</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>141.1489899349552</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>292.8610109365799</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>180.5502562925381</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="C34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="D34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="E34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="F34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="G34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="H34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="I34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="J34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="K34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="L34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="M34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="N34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="O34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="P34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="R34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="S34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="T34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="U34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="V34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="W34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="X34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.83600488538426</v>
+        <v>48.83600488538427</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="C37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="D37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="E37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="F37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="G37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="H37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="I37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="J37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="K37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="L37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="M37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="N37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="O37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="P37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="R37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="S37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="T37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="U37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="V37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="W37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="X37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538428</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="C43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="D43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="E43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="F43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="G43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="H43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="I43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="J43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="K43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="L43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="M43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="N43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="O43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="P43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="R43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="S43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="T43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="U43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="V43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="W43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="X43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="C46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="D46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="E46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="F46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="G46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="H46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="I46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="J46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="K46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="L46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="M46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="N46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="O46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="P46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="R46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="S46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="T46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="U46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="V46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="W46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="X46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538424</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.289291885206776</v>
+        <v>4.289291885206764</v>
       </c>
       <c r="H14" t="n">
-        <v>43.9277105193739</v>
+        <v>43.92771051937378</v>
       </c>
       <c r="I14" t="n">
-        <v>165.3629254044344</v>
+        <v>165.3629254044339</v>
       </c>
       <c r="J14" t="n">
-        <v>364.0482871420689</v>
+        <v>364.0482871420679</v>
       </c>
       <c r="K14" t="n">
-        <v>545.6140126428719</v>
+        <v>545.6140126428703</v>
       </c>
       <c r="L14" t="n">
-        <v>676.8824291747688</v>
+        <v>676.882429174767</v>
       </c>
       <c r="M14" t="n">
-        <v>753.1621237383148</v>
+        <v>753.1621237383127</v>
       </c>
       <c r="N14" t="n">
-        <v>765.3490743071586</v>
+        <v>765.3490743071566</v>
       </c>
       <c r="O14" t="n">
-        <v>722.6974281236337</v>
+        <v>722.6974281236318</v>
       </c>
       <c r="P14" t="n">
-        <v>616.8055347075914</v>
+        <v>616.8055347075897</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1952690686235</v>
+        <v>463.1952690686223</v>
       </c>
       <c r="R14" t="n">
-        <v>269.4372313841204</v>
+        <v>269.4372313841196</v>
       </c>
       <c r="S14" t="n">
-        <v>97.7422388341495</v>
+        <v>97.74223883414923</v>
       </c>
       <c r="T14" t="n">
-        <v>18.77637522749267</v>
+        <v>18.77637522749262</v>
       </c>
       <c r="U14" t="n">
-        <v>0.343143350816542</v>
+        <v>0.3431433508165411</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.294973483674552</v>
+        <v>2.294973483674545</v>
       </c>
       <c r="H15" t="n">
-        <v>22.16461232917265</v>
+        <v>22.16461232917259</v>
       </c>
       <c r="I15" t="n">
-        <v>79.01553441598787</v>
+        <v>79.01553441598764</v>
       </c>
       <c r="J15" t="n">
-        <v>216.8246658413751</v>
+        <v>216.8246658413745</v>
       </c>
       <c r="K15" t="n">
-        <v>370.58788924757</v>
+        <v>370.587889247569</v>
       </c>
       <c r="L15" t="n">
-        <v>498.3011504794241</v>
+        <v>498.3011504794227</v>
       </c>
       <c r="M15" t="n">
-        <v>581.4939392626264</v>
+        <v>581.4939392626248</v>
       </c>
       <c r="N15" t="n">
-        <v>596.8843535456897</v>
+        <v>596.884353545688</v>
       </c>
       <c r="O15" t="n">
-        <v>546.0325726705851</v>
+        <v>546.0325726705836</v>
       </c>
       <c r="P15" t="n">
-        <v>438.2392786500993</v>
+        <v>438.2392786500981</v>
       </c>
       <c r="Q15" t="n">
-        <v>292.9513520564217</v>
+        <v>292.9513520564209</v>
       </c>
       <c r="R15" t="n">
-        <v>142.4896694513025</v>
+        <v>142.4896694513021</v>
       </c>
       <c r="S15" t="n">
-        <v>42.62812589193737</v>
+        <v>42.62812589193725</v>
       </c>
       <c r="T15" t="n">
-        <v>9.250353646916281</v>
+        <v>9.250353646916256</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1509850976101679</v>
+        <v>0.1509850976101675</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.924028675556893</v>
+        <v>1.924028675556888</v>
       </c>
       <c r="H16" t="n">
-        <v>17.10636404267857</v>
+        <v>17.10636404267852</v>
       </c>
       <c r="I16" t="n">
-        <v>57.86078962492913</v>
+        <v>57.86078962492897</v>
       </c>
       <c r="J16" t="n">
-        <v>136.0288273618723</v>
+        <v>136.0288273618719</v>
       </c>
       <c r="K16" t="n">
-        <v>223.5371497601554</v>
+        <v>223.5371497601547</v>
       </c>
       <c r="L16" t="n">
-        <v>286.0505905459767</v>
+        <v>286.0505905459759</v>
       </c>
       <c r="M16" t="n">
-        <v>301.6002404784318</v>
+        <v>301.600240478431</v>
       </c>
       <c r="N16" t="n">
-        <v>294.4288608695382</v>
+        <v>294.4288608695374</v>
       </c>
       <c r="O16" t="n">
-        <v>271.9527077050781</v>
+        <v>271.9527077050773</v>
       </c>
       <c r="P16" t="n">
-        <v>232.7025227237172</v>
+        <v>232.7025227237166</v>
       </c>
       <c r="Q16" t="n">
-        <v>161.1111648232231</v>
+        <v>161.1111648232227</v>
       </c>
       <c r="R16" t="n">
-        <v>86.511325720949</v>
+        <v>86.51132572094878</v>
       </c>
       <c r="S16" t="n">
-        <v>33.5305724640233</v>
+        <v>33.53057246402321</v>
       </c>
       <c r="T16" t="n">
-        <v>8.220849795561268</v>
+        <v>8.220849795561247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1049470186667397</v>
+        <v>0.1049470186667395</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.289291885206776</v>
+        <v>4.289291885206777</v>
       </c>
       <c r="H20" t="n">
-        <v>43.9277105193739</v>
+        <v>43.92771051937392</v>
       </c>
       <c r="I20" t="n">
         <v>165.3629254044344</v>
       </c>
       <c r="J20" t="n">
-        <v>364.0482871420689</v>
+        <v>364.048287142069</v>
       </c>
       <c r="K20" t="n">
-        <v>545.6140126428719</v>
+        <v>545.614012642872</v>
       </c>
       <c r="L20" t="n">
-        <v>676.8824291747688</v>
+        <v>676.882429174769</v>
       </c>
       <c r="M20" t="n">
-        <v>753.1621237383148</v>
+        <v>753.162123738315</v>
       </c>
       <c r="N20" t="n">
-        <v>765.3490743071586</v>
+        <v>765.3490743071588</v>
       </c>
       <c r="O20" t="n">
-        <v>722.6974281236337</v>
+        <v>722.6974281236339</v>
       </c>
       <c r="P20" t="n">
-        <v>616.8055347075914</v>
+        <v>616.8055347075915</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1952690686235</v>
+        <v>463.1952690686236</v>
       </c>
       <c r="R20" t="n">
         <v>269.4372313841204</v>
       </c>
       <c r="S20" t="n">
-        <v>97.7422388341495</v>
+        <v>97.74223883414952</v>
       </c>
       <c r="T20" t="n">
-        <v>18.77637522749267</v>
+        <v>18.77637522749268</v>
       </c>
       <c r="U20" t="n">
-        <v>0.343143350816542</v>
+        <v>0.3431433508165421</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32546,43 @@
         <v>22.16461232917265</v>
       </c>
       <c r="I21" t="n">
-        <v>79.01553441598787</v>
+        <v>79.01553441598789</v>
       </c>
       <c r="J21" t="n">
-        <v>216.8246658413751</v>
+        <v>216.8246658413752</v>
       </c>
       <c r="K21" t="n">
-        <v>370.58788924757</v>
+        <v>370.5878892475702</v>
       </c>
       <c r="L21" t="n">
-        <v>498.3011504794241</v>
+        <v>498.3011504794242</v>
       </c>
       <c r="M21" t="n">
-        <v>581.4939392626264</v>
+        <v>581.4939392626266</v>
       </c>
       <c r="N21" t="n">
-        <v>596.8843535456897</v>
+        <v>596.8843535456898</v>
       </c>
       <c r="O21" t="n">
-        <v>546.0325726705851</v>
+        <v>546.0325726705852</v>
       </c>
       <c r="P21" t="n">
-        <v>438.2392786500993</v>
+        <v>438.2392786500994</v>
       </c>
       <c r="Q21" t="n">
-        <v>292.9513520564217</v>
+        <v>292.9513520564218</v>
       </c>
       <c r="R21" t="n">
         <v>142.4896694513025</v>
       </c>
       <c r="S21" t="n">
-        <v>42.62812589193737</v>
+        <v>42.62812589193738</v>
       </c>
       <c r="T21" t="n">
-        <v>9.250353646916281</v>
+        <v>9.250353646916285</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1509850976101679</v>
+        <v>0.150985097610168</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.924028675556893</v>
+        <v>1.924028675556894</v>
       </c>
       <c r="H22" t="n">
         <v>17.10636404267857</v>
       </c>
       <c r="I22" t="n">
-        <v>57.86078962492913</v>
+        <v>57.86078962492915</v>
       </c>
       <c r="J22" t="n">
-        <v>136.0288273618723</v>
+        <v>136.0288273618724</v>
       </c>
       <c r="K22" t="n">
         <v>223.5371497601554</v>
       </c>
       <c r="L22" t="n">
-        <v>286.0505905459767</v>
+        <v>286.0505905459768</v>
       </c>
       <c r="M22" t="n">
-        <v>301.6002404784318</v>
+        <v>301.6002404784319</v>
       </c>
       <c r="N22" t="n">
-        <v>294.4288608695382</v>
+        <v>294.4288608695383</v>
       </c>
       <c r="O22" t="n">
         <v>271.9527077050781</v>
       </c>
       <c r="P22" t="n">
-        <v>232.7025227237172</v>
+        <v>232.7025227237173</v>
       </c>
       <c r="Q22" t="n">
-        <v>161.1111648232231</v>
+        <v>161.1111648232232</v>
       </c>
       <c r="R22" t="n">
-        <v>86.511325720949</v>
+        <v>86.51132572094903</v>
       </c>
       <c r="S22" t="n">
-        <v>33.5305724640233</v>
+        <v>33.53057246402331</v>
       </c>
       <c r="T22" t="n">
-        <v>8.220849795561268</v>
+        <v>8.22084979556127</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1049470186667397</v>
+        <v>0.1049470186667398</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.289291885206776</v>
+        <v>4.289291885206777</v>
       </c>
       <c r="H23" t="n">
-        <v>43.9277105193739</v>
+        <v>43.92771051937392</v>
       </c>
       <c r="I23" t="n">
         <v>165.3629254044344</v>
       </c>
       <c r="J23" t="n">
-        <v>364.0482871420689</v>
+        <v>364.048287142069</v>
       </c>
       <c r="K23" t="n">
-        <v>545.6140126428719</v>
+        <v>545.614012642872</v>
       </c>
       <c r="L23" t="n">
-        <v>676.8824291747688</v>
+        <v>676.882429174769</v>
       </c>
       <c r="M23" t="n">
-        <v>753.1621237383148</v>
+        <v>753.162123738315</v>
       </c>
       <c r="N23" t="n">
-        <v>765.3490743071586</v>
+        <v>765.3490743071588</v>
       </c>
       <c r="O23" t="n">
-        <v>722.6974281236337</v>
+        <v>722.6974281236339</v>
       </c>
       <c r="P23" t="n">
-        <v>616.8055347075914</v>
+        <v>616.8055347075915</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1952690686235</v>
+        <v>463.1952690686236</v>
       </c>
       <c r="R23" t="n">
         <v>269.4372313841204</v>
       </c>
       <c r="S23" t="n">
-        <v>97.7422388341495</v>
+        <v>97.74223883414952</v>
       </c>
       <c r="T23" t="n">
-        <v>18.77637522749267</v>
+        <v>18.77637522749268</v>
       </c>
       <c r="U23" t="n">
-        <v>0.343143350816542</v>
+        <v>0.3431433508165421</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>22.16461232917265</v>
       </c>
       <c r="I24" t="n">
-        <v>79.01553441598787</v>
+        <v>79.01553441598789</v>
       </c>
       <c r="J24" t="n">
-        <v>216.8246658413751</v>
+        <v>216.8246658413752</v>
       </c>
       <c r="K24" t="n">
-        <v>370.58788924757</v>
+        <v>370.5878892475702</v>
       </c>
       <c r="L24" t="n">
-        <v>498.3011504794241</v>
+        <v>498.3011504794242</v>
       </c>
       <c r="M24" t="n">
-        <v>581.4939392626264</v>
+        <v>581.4939392626266</v>
       </c>
       <c r="N24" t="n">
-        <v>596.8843535456897</v>
+        <v>596.8843535456898</v>
       </c>
       <c r="O24" t="n">
-        <v>546.0325726705851</v>
+        <v>546.0325726705852</v>
       </c>
       <c r="P24" t="n">
-        <v>438.2392786500993</v>
+        <v>438.2392786500994</v>
       </c>
       <c r="Q24" t="n">
-        <v>292.9513520564217</v>
+        <v>292.9513520564218</v>
       </c>
       <c r="R24" t="n">
         <v>142.4896694513025</v>
       </c>
       <c r="S24" t="n">
-        <v>42.62812589193737</v>
+        <v>42.62812589193738</v>
       </c>
       <c r="T24" t="n">
-        <v>9.250353646916281</v>
+        <v>9.250353646916285</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1509850976101679</v>
+        <v>0.150985097610168</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.924028675556893</v>
+        <v>1.924028675556894</v>
       </c>
       <c r="H25" t="n">
         <v>17.10636404267857</v>
       </c>
       <c r="I25" t="n">
-        <v>57.86078962492913</v>
+        <v>57.86078962492915</v>
       </c>
       <c r="J25" t="n">
-        <v>136.0288273618723</v>
+        <v>136.0288273618724</v>
       </c>
       <c r="K25" t="n">
         <v>223.5371497601554</v>
       </c>
       <c r="L25" t="n">
-        <v>286.0505905459767</v>
+        <v>286.0505905459768</v>
       </c>
       <c r="M25" t="n">
-        <v>301.6002404784318</v>
+        <v>301.6002404784319</v>
       </c>
       <c r="N25" t="n">
-        <v>294.4288608695382</v>
+        <v>294.4288608695383</v>
       </c>
       <c r="O25" t="n">
         <v>271.9527077050781</v>
       </c>
       <c r="P25" t="n">
-        <v>232.7025227237172</v>
+        <v>232.7025227237173</v>
       </c>
       <c r="Q25" t="n">
-        <v>161.1111648232231</v>
+        <v>161.1111648232232</v>
       </c>
       <c r="R25" t="n">
-        <v>86.511325720949</v>
+        <v>86.51132572094903</v>
       </c>
       <c r="S25" t="n">
-        <v>33.5305724640233</v>
+        <v>33.53057246402331</v>
       </c>
       <c r="T25" t="n">
-        <v>8.220849795561268</v>
+        <v>8.22084979556127</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1049470186667397</v>
+        <v>0.1049470186667398</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.289291885206776</v>
+        <v>4.289291885206777</v>
       </c>
       <c r="H26" t="n">
-        <v>43.9277105193739</v>
+        <v>43.92771051937392</v>
       </c>
       <c r="I26" t="n">
         <v>165.3629254044344</v>
       </c>
       <c r="J26" t="n">
-        <v>364.0482871420689</v>
+        <v>364.048287142069</v>
       </c>
       <c r="K26" t="n">
-        <v>545.6140126428719</v>
+        <v>545.614012642872</v>
       </c>
       <c r="L26" t="n">
-        <v>676.8824291747688</v>
+        <v>676.882429174769</v>
       </c>
       <c r="M26" t="n">
-        <v>753.1621237383148</v>
+        <v>753.162123738315</v>
       </c>
       <c r="N26" t="n">
-        <v>765.3490743071586</v>
+        <v>765.3490743071588</v>
       </c>
       <c r="O26" t="n">
-        <v>722.6974281236337</v>
+        <v>722.6974281236339</v>
       </c>
       <c r="P26" t="n">
-        <v>616.8055347075914</v>
+        <v>616.8055347075915</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1952690686235</v>
+        <v>463.1952690686236</v>
       </c>
       <c r="R26" t="n">
         <v>269.4372313841204</v>
       </c>
       <c r="S26" t="n">
-        <v>97.7422388341495</v>
+        <v>97.74223883414952</v>
       </c>
       <c r="T26" t="n">
-        <v>18.77637522749267</v>
+        <v>18.77637522749268</v>
       </c>
       <c r="U26" t="n">
-        <v>0.343143350816542</v>
+        <v>0.3431433508165421</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33020,43 @@
         <v>22.16461232917265</v>
       </c>
       <c r="I27" t="n">
-        <v>79.01553441598787</v>
+        <v>79.01553441598789</v>
       </c>
       <c r="J27" t="n">
-        <v>216.8246658413751</v>
+        <v>216.8246658413752</v>
       </c>
       <c r="K27" t="n">
-        <v>370.58788924757</v>
+        <v>370.5878892475702</v>
       </c>
       <c r="L27" t="n">
-        <v>498.3011504794241</v>
+        <v>498.3011504794242</v>
       </c>
       <c r="M27" t="n">
-        <v>581.4939392626264</v>
+        <v>581.4939392626266</v>
       </c>
       <c r="N27" t="n">
-        <v>596.8843535456897</v>
+        <v>596.8843535456898</v>
       </c>
       <c r="O27" t="n">
-        <v>546.0325726705851</v>
+        <v>546.0325726705852</v>
       </c>
       <c r="P27" t="n">
-        <v>438.2392786500993</v>
+        <v>438.2392786500994</v>
       </c>
       <c r="Q27" t="n">
-        <v>292.9513520564217</v>
+        <v>292.9513520564218</v>
       </c>
       <c r="R27" t="n">
         <v>142.4896694513025</v>
       </c>
       <c r="S27" t="n">
-        <v>42.62812589193737</v>
+        <v>42.62812589193738</v>
       </c>
       <c r="T27" t="n">
-        <v>9.250353646916281</v>
+        <v>9.250353646916285</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1509850976101679</v>
+        <v>0.150985097610168</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.924028675556893</v>
+        <v>1.924028675556894</v>
       </c>
       <c r="H28" t="n">
         <v>17.10636404267857</v>
       </c>
       <c r="I28" t="n">
-        <v>57.86078962492913</v>
+        <v>57.86078962492915</v>
       </c>
       <c r="J28" t="n">
-        <v>136.0288273618723</v>
+        <v>136.0288273618724</v>
       </c>
       <c r="K28" t="n">
         <v>223.5371497601554</v>
       </c>
       <c r="L28" t="n">
-        <v>286.0505905459767</v>
+        <v>286.0505905459768</v>
       </c>
       <c r="M28" t="n">
-        <v>301.6002404784318</v>
+        <v>301.6002404784319</v>
       </c>
       <c r="N28" t="n">
-        <v>294.4288608695382</v>
+        <v>294.4288608695383</v>
       </c>
       <c r="O28" t="n">
         <v>271.9527077050781</v>
       </c>
       <c r="P28" t="n">
-        <v>232.7025227237172</v>
+        <v>232.7025227237173</v>
       </c>
       <c r="Q28" t="n">
-        <v>161.1111648232231</v>
+        <v>161.1111648232232</v>
       </c>
       <c r="R28" t="n">
-        <v>86.511325720949</v>
+        <v>86.51132572094903</v>
       </c>
       <c r="S28" t="n">
-        <v>33.5305724640233</v>
+        <v>33.53057246402331</v>
       </c>
       <c r="T28" t="n">
-        <v>8.220849795561268</v>
+        <v>8.22084979556127</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1049470186667397</v>
+        <v>0.1049470186667398</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.289291885206776</v>
+        <v>4.289291885206777</v>
       </c>
       <c r="H29" t="n">
-        <v>43.9277105193739</v>
+        <v>43.92771051937392</v>
       </c>
       <c r="I29" t="n">
         <v>165.3629254044344</v>
       </c>
       <c r="J29" t="n">
-        <v>364.0482871420689</v>
+        <v>364.048287142069</v>
       </c>
       <c r="K29" t="n">
-        <v>545.6140126428719</v>
+        <v>545.614012642872</v>
       </c>
       <c r="L29" t="n">
-        <v>676.8824291747688</v>
+        <v>676.882429174769</v>
       </c>
       <c r="M29" t="n">
-        <v>753.1621237383148</v>
+        <v>753.162123738315</v>
       </c>
       <c r="N29" t="n">
-        <v>765.3490743071586</v>
+        <v>765.3490743071588</v>
       </c>
       <c r="O29" t="n">
-        <v>722.6974281236337</v>
+        <v>722.6974281236339</v>
       </c>
       <c r="P29" t="n">
-        <v>616.8055347075914</v>
+        <v>616.8055347075915</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1952690686235</v>
+        <v>463.1952690686236</v>
       </c>
       <c r="R29" t="n">
         <v>269.4372313841204</v>
       </c>
       <c r="S29" t="n">
-        <v>97.7422388341495</v>
+        <v>97.74223883414952</v>
       </c>
       <c r="T29" t="n">
-        <v>18.77637522749267</v>
+        <v>18.77637522749268</v>
       </c>
       <c r="U29" t="n">
-        <v>0.343143350816542</v>
+        <v>0.3431433508165421</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,43 +33257,43 @@
         <v>22.16461232917265</v>
       </c>
       <c r="I30" t="n">
-        <v>79.01553441598787</v>
+        <v>79.01553441598789</v>
       </c>
       <c r="J30" t="n">
-        <v>216.8246658413751</v>
+        <v>216.8246658413752</v>
       </c>
       <c r="K30" t="n">
-        <v>370.58788924757</v>
+        <v>370.5878892475702</v>
       </c>
       <c r="L30" t="n">
-        <v>498.3011504794241</v>
+        <v>498.3011504794242</v>
       </c>
       <c r="M30" t="n">
-        <v>581.4939392626264</v>
+        <v>581.4939392626266</v>
       </c>
       <c r="N30" t="n">
-        <v>596.8843535456897</v>
+        <v>596.8843535456898</v>
       </c>
       <c r="O30" t="n">
-        <v>546.0325726705851</v>
+        <v>546.0325726705852</v>
       </c>
       <c r="P30" t="n">
-        <v>438.2392786500993</v>
+        <v>438.2392786500994</v>
       </c>
       <c r="Q30" t="n">
-        <v>292.9513520564217</v>
+        <v>292.9513520564218</v>
       </c>
       <c r="R30" t="n">
         <v>142.4896694513025</v>
       </c>
       <c r="S30" t="n">
-        <v>42.62812589193737</v>
+        <v>42.62812589193738</v>
       </c>
       <c r="T30" t="n">
-        <v>9.250353646916281</v>
+        <v>9.250353646916285</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1509850976101679</v>
+        <v>0.150985097610168</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.924028675556893</v>
+        <v>1.924028675556894</v>
       </c>
       <c r="H31" t="n">
         <v>17.10636404267857</v>
       </c>
       <c r="I31" t="n">
-        <v>57.86078962492913</v>
+        <v>57.86078962492915</v>
       </c>
       <c r="J31" t="n">
-        <v>136.0288273618723</v>
+        <v>136.0288273618724</v>
       </c>
       <c r="K31" t="n">
         <v>223.5371497601554</v>
       </c>
       <c r="L31" t="n">
-        <v>286.0505905459767</v>
+        <v>286.0505905459768</v>
       </c>
       <c r="M31" t="n">
-        <v>301.6002404784318</v>
+        <v>301.6002404784319</v>
       </c>
       <c r="N31" t="n">
-        <v>294.4288608695382</v>
+        <v>294.4288608695383</v>
       </c>
       <c r="O31" t="n">
         <v>271.9527077050781</v>
       </c>
       <c r="P31" t="n">
-        <v>232.7025227237172</v>
+        <v>232.7025227237173</v>
       </c>
       <c r="Q31" t="n">
-        <v>161.1111648232231</v>
+        <v>161.1111648232232</v>
       </c>
       <c r="R31" t="n">
-        <v>86.511325720949</v>
+        <v>86.51132572094903</v>
       </c>
       <c r="S31" t="n">
-        <v>33.5305724640233</v>
+        <v>33.53057246402331</v>
       </c>
       <c r="T31" t="n">
-        <v>8.220849795561268</v>
+        <v>8.22084979556127</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1049470186667397</v>
+        <v>0.1049470186667398</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.289291885206776</v>
+        <v>4.289291885206777</v>
       </c>
       <c r="H32" t="n">
-        <v>43.9277105193739</v>
+        <v>43.92771051937392</v>
       </c>
       <c r="I32" t="n">
         <v>165.3629254044344</v>
       </c>
       <c r="J32" t="n">
-        <v>364.0482871420689</v>
+        <v>364.048287142069</v>
       </c>
       <c r="K32" t="n">
-        <v>545.6140126428719</v>
+        <v>545.614012642872</v>
       </c>
       <c r="L32" t="n">
-        <v>676.8824291747688</v>
+        <v>676.882429174769</v>
       </c>
       <c r="M32" t="n">
-        <v>753.1621237383148</v>
+        <v>753.162123738315</v>
       </c>
       <c r="N32" t="n">
-        <v>765.3490743071586</v>
+        <v>765.3490743071588</v>
       </c>
       <c r="O32" t="n">
-        <v>722.6974281236337</v>
+        <v>722.6974281236339</v>
       </c>
       <c r="P32" t="n">
-        <v>616.8055347075914</v>
+        <v>616.8055347075915</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1952690686235</v>
+        <v>463.1952690686236</v>
       </c>
       <c r="R32" t="n">
         <v>269.4372313841204</v>
       </c>
       <c r="S32" t="n">
-        <v>97.7422388341495</v>
+        <v>97.74223883414952</v>
       </c>
       <c r="T32" t="n">
-        <v>18.77637522749267</v>
+        <v>18.77637522749268</v>
       </c>
       <c r="U32" t="n">
-        <v>0.343143350816542</v>
+        <v>0.3431433508165421</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,43 +33494,43 @@
         <v>22.16461232917265</v>
       </c>
       <c r="I33" t="n">
-        <v>79.01553441598787</v>
+        <v>79.01553441598789</v>
       </c>
       <c r="J33" t="n">
-        <v>216.8246658413751</v>
+        <v>216.8246658413752</v>
       </c>
       <c r="K33" t="n">
-        <v>370.58788924757</v>
+        <v>370.5878892475702</v>
       </c>
       <c r="L33" t="n">
-        <v>498.3011504794241</v>
+        <v>498.3011504794242</v>
       </c>
       <c r="M33" t="n">
-        <v>581.4939392626264</v>
+        <v>581.4939392626266</v>
       </c>
       <c r="N33" t="n">
-        <v>596.8843535456897</v>
+        <v>596.8843535456898</v>
       </c>
       <c r="O33" t="n">
-        <v>546.0325726705851</v>
+        <v>546.0325726705852</v>
       </c>
       <c r="P33" t="n">
-        <v>438.2392786500993</v>
+        <v>438.2392786500994</v>
       </c>
       <c r="Q33" t="n">
-        <v>292.9513520564217</v>
+        <v>292.9513520564218</v>
       </c>
       <c r="R33" t="n">
         <v>142.4896694513025</v>
       </c>
       <c r="S33" t="n">
-        <v>42.62812589193737</v>
+        <v>42.62812589193738</v>
       </c>
       <c r="T33" t="n">
-        <v>9.250353646916281</v>
+        <v>9.250353646916285</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1509850976101679</v>
+        <v>0.150985097610168</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.924028675556893</v>
+        <v>1.924028675556894</v>
       </c>
       <c r="H34" t="n">
         <v>17.10636404267857</v>
       </c>
       <c r="I34" t="n">
-        <v>57.86078962492913</v>
+        <v>57.86078962492915</v>
       </c>
       <c r="J34" t="n">
-        <v>136.0288273618723</v>
+        <v>136.0288273618724</v>
       </c>
       <c r="K34" t="n">
         <v>223.5371497601554</v>
       </c>
       <c r="L34" t="n">
-        <v>286.0505905459767</v>
+        <v>286.0505905459768</v>
       </c>
       <c r="M34" t="n">
-        <v>301.6002404784318</v>
+        <v>301.6002404784319</v>
       </c>
       <c r="N34" t="n">
-        <v>294.4288608695382</v>
+        <v>294.4288608695383</v>
       </c>
       <c r="O34" t="n">
         <v>271.9527077050781</v>
       </c>
       <c r="P34" t="n">
-        <v>232.7025227237172</v>
+        <v>232.7025227237173</v>
       </c>
       <c r="Q34" t="n">
-        <v>161.1111648232231</v>
+        <v>161.1111648232232</v>
       </c>
       <c r="R34" t="n">
-        <v>86.511325720949</v>
+        <v>86.51132572094903</v>
       </c>
       <c r="S34" t="n">
-        <v>33.5305724640233</v>
+        <v>33.53057246402331</v>
       </c>
       <c r="T34" t="n">
-        <v>8.220849795561268</v>
+        <v>8.22084979556127</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1049470186667397</v>
+        <v>0.1049470186667398</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.289291885206776</v>
+        <v>4.289291885206777</v>
       </c>
       <c r="H35" t="n">
-        <v>43.9277105193739</v>
+        <v>43.92771051937392</v>
       </c>
       <c r="I35" t="n">
         <v>165.3629254044344</v>
       </c>
       <c r="J35" t="n">
-        <v>364.0482871420689</v>
+        <v>364.048287142069</v>
       </c>
       <c r="K35" t="n">
-        <v>545.6140126428719</v>
+        <v>545.614012642872</v>
       </c>
       <c r="L35" t="n">
-        <v>676.8824291747688</v>
+        <v>676.882429174769</v>
       </c>
       <c r="M35" t="n">
-        <v>753.1621237383148</v>
+        <v>753.162123738315</v>
       </c>
       <c r="N35" t="n">
-        <v>765.3490743071586</v>
+        <v>765.3490743071588</v>
       </c>
       <c r="O35" t="n">
-        <v>722.6974281236337</v>
+        <v>722.6974281236339</v>
       </c>
       <c r="P35" t="n">
-        <v>616.8055347075914</v>
+        <v>616.8055347075915</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1952690686235</v>
+        <v>463.1952690686236</v>
       </c>
       <c r="R35" t="n">
         <v>269.4372313841204</v>
       </c>
       <c r="S35" t="n">
-        <v>97.7422388341495</v>
+        <v>97.74223883414952</v>
       </c>
       <c r="T35" t="n">
-        <v>18.77637522749267</v>
+        <v>18.77637522749268</v>
       </c>
       <c r="U35" t="n">
-        <v>0.343143350816542</v>
+        <v>0.3431433508165421</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,43 +33731,43 @@
         <v>22.16461232917265</v>
       </c>
       <c r="I36" t="n">
-        <v>79.01553441598787</v>
+        <v>79.01553441598789</v>
       </c>
       <c r="J36" t="n">
-        <v>216.8246658413751</v>
+        <v>216.8246658413752</v>
       </c>
       <c r="K36" t="n">
-        <v>370.58788924757</v>
+        <v>370.5878892475702</v>
       </c>
       <c r="L36" t="n">
-        <v>498.3011504794241</v>
+        <v>498.3011504794242</v>
       </c>
       <c r="M36" t="n">
-        <v>581.4939392626264</v>
+        <v>581.4939392626266</v>
       </c>
       <c r="N36" t="n">
-        <v>596.8843535456897</v>
+        <v>596.8843535456898</v>
       </c>
       <c r="O36" t="n">
-        <v>546.0325726705851</v>
+        <v>546.0325726705852</v>
       </c>
       <c r="P36" t="n">
-        <v>438.2392786500993</v>
+        <v>438.2392786500994</v>
       </c>
       <c r="Q36" t="n">
-        <v>292.9513520564217</v>
+        <v>292.9513520564218</v>
       </c>
       <c r="R36" t="n">
         <v>142.4896694513025</v>
       </c>
       <c r="S36" t="n">
-        <v>42.62812589193737</v>
+        <v>42.62812589193738</v>
       </c>
       <c r="T36" t="n">
-        <v>9.250353646916281</v>
+        <v>9.250353646916285</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1509850976101679</v>
+        <v>0.150985097610168</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.924028675556893</v>
+        <v>1.924028675556894</v>
       </c>
       <c r="H37" t="n">
         <v>17.10636404267857</v>
       </c>
       <c r="I37" t="n">
-        <v>57.86078962492913</v>
+        <v>57.86078962492915</v>
       </c>
       <c r="J37" t="n">
-        <v>136.0288273618723</v>
+        <v>136.0288273618724</v>
       </c>
       <c r="K37" t="n">
         <v>223.5371497601554</v>
       </c>
       <c r="L37" t="n">
-        <v>286.0505905459767</v>
+        <v>286.0505905459768</v>
       </c>
       <c r="M37" t="n">
-        <v>301.6002404784318</v>
+        <v>301.6002404784319</v>
       </c>
       <c r="N37" t="n">
-        <v>294.4288608695382</v>
+        <v>294.4288608695383</v>
       </c>
       <c r="O37" t="n">
         <v>271.9527077050781</v>
       </c>
       <c r="P37" t="n">
-        <v>232.7025227237172</v>
+        <v>232.7025227237173</v>
       </c>
       <c r="Q37" t="n">
-        <v>161.1111648232231</v>
+        <v>161.1111648232232</v>
       </c>
       <c r="R37" t="n">
-        <v>86.511325720949</v>
+        <v>86.51132572094903</v>
       </c>
       <c r="S37" t="n">
-        <v>33.5305724640233</v>
+        <v>33.53057246402331</v>
       </c>
       <c r="T37" t="n">
-        <v>8.220849795561268</v>
+        <v>8.22084979556127</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1049470186667397</v>
+        <v>0.1049470186667398</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.289291885206776</v>
+        <v>4.289291885206777</v>
       </c>
       <c r="H38" t="n">
-        <v>43.9277105193739</v>
+        <v>43.92771051937392</v>
       </c>
       <c r="I38" t="n">
         <v>165.3629254044344</v>
       </c>
       <c r="J38" t="n">
-        <v>364.0482871420689</v>
+        <v>364.048287142069</v>
       </c>
       <c r="K38" t="n">
-        <v>545.6140126428719</v>
+        <v>545.614012642872</v>
       </c>
       <c r="L38" t="n">
-        <v>676.8824291747688</v>
+        <v>676.882429174769</v>
       </c>
       <c r="M38" t="n">
-        <v>753.1621237383148</v>
+        <v>753.162123738315</v>
       </c>
       <c r="N38" t="n">
-        <v>765.3490743071586</v>
+        <v>765.3490743071588</v>
       </c>
       <c r="O38" t="n">
-        <v>722.6974281236337</v>
+        <v>722.6974281236339</v>
       </c>
       <c r="P38" t="n">
-        <v>616.8055347075914</v>
+        <v>616.8055347075915</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1952690686235</v>
+        <v>463.1952690686236</v>
       </c>
       <c r="R38" t="n">
         <v>269.4372313841204</v>
       </c>
       <c r="S38" t="n">
-        <v>97.7422388341495</v>
+        <v>97.74223883414952</v>
       </c>
       <c r="T38" t="n">
-        <v>18.77637522749267</v>
+        <v>18.77637522749268</v>
       </c>
       <c r="U38" t="n">
-        <v>0.343143350816542</v>
+        <v>0.3431433508165421</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,43 +33968,43 @@
         <v>22.16461232917265</v>
       </c>
       <c r="I39" t="n">
-        <v>79.01553441598787</v>
+        <v>79.01553441598789</v>
       </c>
       <c r="J39" t="n">
-        <v>216.8246658413751</v>
+        <v>216.8246658413752</v>
       </c>
       <c r="K39" t="n">
-        <v>370.58788924757</v>
+        <v>370.5878892475702</v>
       </c>
       <c r="L39" t="n">
-        <v>498.3011504794241</v>
+        <v>498.3011504794242</v>
       </c>
       <c r="M39" t="n">
-        <v>581.4939392626264</v>
+        <v>581.4939392626266</v>
       </c>
       <c r="N39" t="n">
-        <v>596.8843535456897</v>
+        <v>596.8843535456898</v>
       </c>
       <c r="O39" t="n">
-        <v>546.0325726705851</v>
+        <v>546.0325726705852</v>
       </c>
       <c r="P39" t="n">
-        <v>438.2392786500993</v>
+        <v>438.2392786500994</v>
       </c>
       <c r="Q39" t="n">
-        <v>292.9513520564217</v>
+        <v>292.9513520564218</v>
       </c>
       <c r="R39" t="n">
         <v>142.4896694513025</v>
       </c>
       <c r="S39" t="n">
-        <v>42.62812589193737</v>
+        <v>42.62812589193738</v>
       </c>
       <c r="T39" t="n">
-        <v>9.250353646916281</v>
+        <v>9.250353646916285</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1509850976101679</v>
+        <v>0.150985097610168</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.924028675556893</v>
+        <v>1.924028675556894</v>
       </c>
       <c r="H40" t="n">
         <v>17.10636404267857</v>
       </c>
       <c r="I40" t="n">
-        <v>57.86078962492913</v>
+        <v>57.86078962492915</v>
       </c>
       <c r="J40" t="n">
-        <v>136.0288273618723</v>
+        <v>136.0288273618724</v>
       </c>
       <c r="K40" t="n">
         <v>223.5371497601554</v>
       </c>
       <c r="L40" t="n">
-        <v>286.0505905459767</v>
+        <v>286.0505905459768</v>
       </c>
       <c r="M40" t="n">
-        <v>301.6002404784318</v>
+        <v>301.6002404784319</v>
       </c>
       <c r="N40" t="n">
-        <v>294.4288608695382</v>
+        <v>294.4288608695383</v>
       </c>
       <c r="O40" t="n">
         <v>271.9527077050781</v>
       </c>
       <c r="P40" t="n">
-        <v>232.7025227237172</v>
+        <v>232.7025227237173</v>
       </c>
       <c r="Q40" t="n">
-        <v>161.1111648232231</v>
+        <v>161.1111648232232</v>
       </c>
       <c r="R40" t="n">
-        <v>86.511325720949</v>
+        <v>86.51132572094903</v>
       </c>
       <c r="S40" t="n">
-        <v>33.5305724640233</v>
+        <v>33.53057246402331</v>
       </c>
       <c r="T40" t="n">
-        <v>8.220849795561268</v>
+        <v>8.22084979556127</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1049470186667397</v>
+        <v>0.1049470186667398</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.289291885206776</v>
+        <v>4.289291885206777</v>
       </c>
       <c r="H41" t="n">
-        <v>43.9277105193739</v>
+        <v>43.92771051937392</v>
       </c>
       <c r="I41" t="n">
         <v>165.3629254044344</v>
       </c>
       <c r="J41" t="n">
-        <v>364.0482871420689</v>
+        <v>364.048287142069</v>
       </c>
       <c r="K41" t="n">
-        <v>545.6140126428719</v>
+        <v>545.614012642872</v>
       </c>
       <c r="L41" t="n">
-        <v>676.8824291747688</v>
+        <v>676.882429174769</v>
       </c>
       <c r="M41" t="n">
-        <v>753.1621237383148</v>
+        <v>753.162123738315</v>
       </c>
       <c r="N41" t="n">
-        <v>765.3490743071586</v>
+        <v>765.3490743071588</v>
       </c>
       <c r="O41" t="n">
-        <v>722.6974281236337</v>
+        <v>722.6974281236339</v>
       </c>
       <c r="P41" t="n">
-        <v>616.8055347075914</v>
+        <v>616.8055347075915</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1952690686235</v>
+        <v>463.1952690686236</v>
       </c>
       <c r="R41" t="n">
         <v>269.4372313841204</v>
       </c>
       <c r="S41" t="n">
-        <v>97.7422388341495</v>
+        <v>97.74223883414952</v>
       </c>
       <c r="T41" t="n">
-        <v>18.77637522749267</v>
+        <v>18.77637522749268</v>
       </c>
       <c r="U41" t="n">
-        <v>0.343143350816542</v>
+        <v>0.3431433508165421</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,43 +34205,43 @@
         <v>22.16461232917265</v>
       </c>
       <c r="I42" t="n">
-        <v>79.01553441598787</v>
+        <v>79.01553441598789</v>
       </c>
       <c r="J42" t="n">
-        <v>216.8246658413751</v>
+        <v>216.8246658413752</v>
       </c>
       <c r="K42" t="n">
-        <v>370.58788924757</v>
+        <v>370.5878892475702</v>
       </c>
       <c r="L42" t="n">
-        <v>498.3011504794241</v>
+        <v>498.3011504794242</v>
       </c>
       <c r="M42" t="n">
-        <v>581.4939392626264</v>
+        <v>581.4939392626266</v>
       </c>
       <c r="N42" t="n">
-        <v>596.8843535456897</v>
+        <v>596.8843535456898</v>
       </c>
       <c r="O42" t="n">
-        <v>546.0325726705851</v>
+        <v>546.0325726705852</v>
       </c>
       <c r="P42" t="n">
-        <v>438.2392786500993</v>
+        <v>438.2392786500994</v>
       </c>
       <c r="Q42" t="n">
-        <v>292.9513520564217</v>
+        <v>292.9513520564218</v>
       </c>
       <c r="R42" t="n">
         <v>142.4896694513025</v>
       </c>
       <c r="S42" t="n">
-        <v>42.62812589193737</v>
+        <v>42.62812589193738</v>
       </c>
       <c r="T42" t="n">
-        <v>9.250353646916281</v>
+        <v>9.250353646916285</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1509850976101679</v>
+        <v>0.150985097610168</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.924028675556893</v>
+        <v>1.924028675556894</v>
       </c>
       <c r="H43" t="n">
         <v>17.10636404267857</v>
       </c>
       <c r="I43" t="n">
-        <v>57.86078962492913</v>
+        <v>57.86078962492915</v>
       </c>
       <c r="J43" t="n">
-        <v>136.0288273618723</v>
+        <v>136.0288273618724</v>
       </c>
       <c r="K43" t="n">
         <v>223.5371497601554</v>
       </c>
       <c r="L43" t="n">
-        <v>286.0505905459767</v>
+        <v>286.0505905459768</v>
       </c>
       <c r="M43" t="n">
-        <v>301.6002404784318</v>
+        <v>301.6002404784319</v>
       </c>
       <c r="N43" t="n">
-        <v>294.4288608695382</v>
+        <v>294.4288608695383</v>
       </c>
       <c r="O43" t="n">
         <v>271.9527077050781</v>
       </c>
       <c r="P43" t="n">
-        <v>232.7025227237172</v>
+        <v>232.7025227237173</v>
       </c>
       <c r="Q43" t="n">
-        <v>161.1111648232231</v>
+        <v>161.1111648232232</v>
       </c>
       <c r="R43" t="n">
-        <v>86.511325720949</v>
+        <v>86.51132572094903</v>
       </c>
       <c r="S43" t="n">
-        <v>33.5305724640233</v>
+        <v>33.53057246402331</v>
       </c>
       <c r="T43" t="n">
-        <v>8.220849795561268</v>
+        <v>8.22084979556127</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1049470186667397</v>
+        <v>0.1049470186667398</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.289291885206776</v>
+        <v>4.289291885206778</v>
       </c>
       <c r="H44" t="n">
-        <v>43.9277105193739</v>
+        <v>43.92771051937392</v>
       </c>
       <c r="I44" t="n">
-        <v>165.3629254044344</v>
+        <v>165.3629254044345</v>
       </c>
       <c r="J44" t="n">
-        <v>364.0482871420689</v>
+        <v>364.0482871420691</v>
       </c>
       <c r="K44" t="n">
-        <v>545.6140126428719</v>
+        <v>545.6140126428721</v>
       </c>
       <c r="L44" t="n">
-        <v>676.8824291747688</v>
+        <v>676.8824291747692</v>
       </c>
       <c r="M44" t="n">
-        <v>753.1621237383148</v>
+        <v>753.1621237383151</v>
       </c>
       <c r="N44" t="n">
-        <v>765.3490743071586</v>
+        <v>765.349074307159</v>
       </c>
       <c r="O44" t="n">
-        <v>722.6974281236337</v>
+        <v>722.697428123634</v>
       </c>
       <c r="P44" t="n">
-        <v>616.8055347075914</v>
+        <v>616.8055347075916</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1952690686235</v>
+        <v>463.1952690686238</v>
       </c>
       <c r="R44" t="n">
-        <v>269.4372313841204</v>
+        <v>269.4372313841205</v>
       </c>
       <c r="S44" t="n">
-        <v>97.7422388341495</v>
+        <v>97.74223883414955</v>
       </c>
       <c r="T44" t="n">
-        <v>18.77637522749267</v>
+        <v>18.77637522749268</v>
       </c>
       <c r="U44" t="n">
-        <v>0.343143350816542</v>
+        <v>0.3431433508165421</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.294973483674552</v>
+        <v>2.294973483674553</v>
       </c>
       <c r="H45" t="n">
-        <v>22.16461232917265</v>
+        <v>22.16461232917266</v>
       </c>
       <c r="I45" t="n">
-        <v>79.01553441598787</v>
+        <v>79.0155344159879</v>
       </c>
       <c r="J45" t="n">
-        <v>216.8246658413751</v>
+        <v>216.8246658413752</v>
       </c>
       <c r="K45" t="n">
-        <v>370.58788924757</v>
+        <v>370.5878892475702</v>
       </c>
       <c r="L45" t="n">
-        <v>498.3011504794241</v>
+        <v>498.3011504794243</v>
       </c>
       <c r="M45" t="n">
-        <v>581.4939392626264</v>
+        <v>581.4939392626267</v>
       </c>
       <c r="N45" t="n">
-        <v>596.8843535456897</v>
+        <v>596.8843535456899</v>
       </c>
       <c r="O45" t="n">
-        <v>546.0325726705851</v>
+        <v>546.0325726705853</v>
       </c>
       <c r="P45" t="n">
-        <v>438.2392786500993</v>
+        <v>438.2392786500995</v>
       </c>
       <c r="Q45" t="n">
-        <v>292.9513520564217</v>
+        <v>292.9513520564219</v>
       </c>
       <c r="R45" t="n">
         <v>142.4896694513025</v>
       </c>
       <c r="S45" t="n">
-        <v>42.62812589193737</v>
+        <v>42.62812589193739</v>
       </c>
       <c r="T45" t="n">
-        <v>9.250353646916281</v>
+        <v>9.250353646916286</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1509850976101679</v>
+        <v>0.150985097610168</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.924028675556893</v>
+        <v>1.924028675556894</v>
       </c>
       <c r="H46" t="n">
-        <v>17.10636404267857</v>
+        <v>17.10636404267858</v>
       </c>
       <c r="I46" t="n">
-        <v>57.86078962492913</v>
+        <v>57.86078962492915</v>
       </c>
       <c r="J46" t="n">
-        <v>136.0288273618723</v>
+        <v>136.0288273618724</v>
       </c>
       <c r="K46" t="n">
         <v>223.5371497601554</v>
       </c>
       <c r="L46" t="n">
-        <v>286.0505905459767</v>
+        <v>286.0505905459768</v>
       </c>
       <c r="M46" t="n">
-        <v>301.6002404784318</v>
+        <v>301.600240478432</v>
       </c>
       <c r="N46" t="n">
-        <v>294.4288608695382</v>
+        <v>294.4288608695384</v>
       </c>
       <c r="O46" t="n">
-        <v>271.9527077050781</v>
+        <v>271.9527077050782</v>
       </c>
       <c r="P46" t="n">
-        <v>232.7025227237172</v>
+        <v>232.7025227237173</v>
       </c>
       <c r="Q46" t="n">
-        <v>161.1111648232231</v>
+        <v>161.1111648232232</v>
       </c>
       <c r="R46" t="n">
-        <v>86.511325720949</v>
+        <v>86.51132572094905</v>
       </c>
       <c r="S46" t="n">
-        <v>33.5305724640233</v>
+        <v>33.53057246402332</v>
       </c>
       <c r="T46" t="n">
-        <v>8.220849795561268</v>
+        <v>8.220849795561271</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1049470186667397</v>
+        <v>0.1049470186667398</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>164.870335061104</v>
+        <v>38.77929972069518</v>
       </c>
       <c r="K12" t="n">
-        <v>409.689504310143</v>
+        <v>398.3903897778991</v>
       </c>
       <c r="L12" t="n">
-        <v>242.0623947805616</v>
+        <v>612.9027400840208</v>
       </c>
       <c r="M12" t="n">
         <v>302.0277894565571</v>
       </c>
       <c r="N12" t="n">
-        <v>666.4114294502136</v>
+        <v>324.575753115319</v>
       </c>
       <c r="O12" t="n">
         <v>274.4791655056608</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7653790882908</v>
+        <v>519.228147728228</v>
       </c>
       <c r="Q12" t="n">
-        <v>293.860196142645</v>
+        <v>83.78290840679588</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>183.0023826153827</v>
+        <v>352.0989977874554</v>
       </c>
       <c r="K14" t="n">
-        <v>325.5241615978914</v>
+        <v>649.6695741690545</v>
       </c>
       <c r="L14" t="n">
-        <v>441.1160142047816</v>
+        <v>441.1160142047798</v>
       </c>
       <c r="M14" t="n">
-        <v>972.3294240038746</v>
+        <v>972.3294240038725</v>
       </c>
       <c r="N14" t="n">
-        <v>661.4827235045976</v>
+        <v>870.8395851955987</v>
       </c>
       <c r="O14" t="n">
-        <v>873.3993979646923</v>
+        <v>492.599216701945</v>
       </c>
       <c r="P14" t="n">
-        <v>707.3712471238046</v>
+        <v>385.5725389523201</v>
       </c>
       <c r="Q14" t="n">
-        <v>453.2045698540787</v>
+        <v>453.2045698540775</v>
       </c>
       <c r="R14" t="n">
-        <v>119.5681134429707</v>
+        <v>119.5681134429699</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>158.628265125799</v>
+        <v>89.98703917470783</v>
       </c>
       <c r="K15" t="n">
-        <v>232.7464502732111</v>
+        <v>232.74645027321</v>
       </c>
       <c r="L15" t="n">
-        <v>359.7467706995499</v>
+        <v>359.7467706995486</v>
       </c>
       <c r="M15" t="n">
-        <v>439.3599053406081</v>
+        <v>439.3599053406065</v>
       </c>
       <c r="N15" t="n">
-        <v>465.5426414623564</v>
+        <v>465.5426414623547</v>
       </c>
       <c r="O15" t="n">
-        <v>403.4363282261406</v>
+        <v>403.4363282261392</v>
       </c>
       <c r="P15" t="n">
-        <v>304.2648712357691</v>
+        <v>304.2648712357678</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.9695779704002</v>
+        <v>221.6108039215003</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.66964724519957</v>
+        <v>42.66964724519917</v>
       </c>
       <c r="K16" t="n">
-        <v>201.2676579342725</v>
+        <v>201.2676579342719</v>
       </c>
       <c r="L16" t="n">
-        <v>313.6406158062928</v>
+        <v>313.6406158062921</v>
       </c>
       <c r="M16" t="n">
-        <v>341.1841174402724</v>
+        <v>341.1841174402716</v>
       </c>
       <c r="N16" t="n">
-        <v>338.5610332487668</v>
+        <v>338.561033248766</v>
       </c>
       <c r="O16" t="n">
-        <v>296.5378356191177</v>
+        <v>296.5378356191169</v>
       </c>
       <c r="P16" t="n">
-        <v>229.9810819886107</v>
+        <v>229.9810819886101</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.94912157152875</v>
+        <v>74.94912157152829</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>649.6695741690561</v>
       </c>
       <c r="L17" t="n">
-        <v>522.9342327484054</v>
+        <v>858.777228755232</v>
       </c>
       <c r="M17" t="n">
         <v>522.8158905110421</v>
@@ -35896,7 +35896,7 @@
         <v>535.9360107105676</v>
       </c>
       <c r="O17" t="n">
-        <v>873.3993979646923</v>
+        <v>537.556401957866</v>
       </c>
       <c r="P17" t="n">
         <v>707.3712471238046</v>
@@ -35963,13 +35963,13 @@
         <v>89.98703917470843</v>
       </c>
       <c r="K18" t="n">
-        <v>232.7464502732111</v>
+        <v>301.3876762243016</v>
       </c>
       <c r="L18" t="n">
         <v>359.7467706995499</v>
       </c>
       <c r="M18" t="n">
-        <v>508.0011312916987</v>
+        <v>439.3599053406081</v>
       </c>
       <c r="N18" t="n">
         <v>465.5426414623564</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>352.0989977874564</v>
+        <v>183.0023826153827</v>
       </c>
       <c r="K20" t="n">
-        <v>649.6695741690561</v>
+        <v>325.5241615978915</v>
       </c>
       <c r="L20" t="n">
-        <v>522.9342327484054</v>
+        <v>858.7772287552322</v>
       </c>
       <c r="M20" t="n">
-        <v>522.8158905110421</v>
+        <v>972.3294240038748</v>
       </c>
       <c r="N20" t="n">
-        <v>535.9360107105676</v>
+        <v>973.2829351225521</v>
       </c>
       <c r="O20" t="n">
-        <v>873.3993979646923</v>
+        <v>743.7680905006557</v>
       </c>
       <c r="P20" t="n">
-        <v>707.3712471238046</v>
+        <v>385.572538952322</v>
       </c>
       <c r="Q20" t="n">
-        <v>453.2045698540787</v>
+        <v>240.8895791941742</v>
       </c>
       <c r="R20" t="n">
-        <v>119.5681134429707</v>
+        <v>53.8516935699883</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.98703917470843</v>
+        <v>158.6282651257986</v>
       </c>
       <c r="K21" t="n">
-        <v>232.7464502732111</v>
+        <v>232.7464502732112</v>
       </c>
       <c r="L21" t="n">
-        <v>428.3879966506404</v>
+        <v>359.74677069955</v>
       </c>
       <c r="M21" t="n">
-        <v>439.3599053406081</v>
+        <v>439.3599053406082</v>
       </c>
       <c r="N21" t="n">
-        <v>465.5426414623564</v>
+        <v>465.5426414623565</v>
       </c>
       <c r="O21" t="n">
-        <v>403.4363282261406</v>
+        <v>403.4363282261407</v>
       </c>
       <c r="P21" t="n">
         <v>304.2648712357691</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.9695779704002</v>
+        <v>152.9695779704003</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.66964724519957</v>
+        <v>42.6696472451996</v>
       </c>
       <c r="K22" t="n">
-        <v>201.2676579342725</v>
+        <v>201.2676579342726</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6406158062928</v>
+        <v>313.6406158062929</v>
       </c>
       <c r="M22" t="n">
-        <v>341.1841174402724</v>
+        <v>341.1841174402725</v>
       </c>
       <c r="N22" t="n">
-        <v>338.5610332487668</v>
+        <v>338.5610332487669</v>
       </c>
       <c r="O22" t="n">
-        <v>296.5378356191177</v>
+        <v>296.5378356191178</v>
       </c>
       <c r="P22" t="n">
-        <v>229.9810819886107</v>
+        <v>229.9810819886108</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.94912157152875</v>
+        <v>74.94912157152878</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>352.0989977874564</v>
+        <v>183.0023826153827</v>
       </c>
       <c r="K23" t="n">
-        <v>649.6695741690561</v>
+        <v>325.5241615978915</v>
       </c>
       <c r="L23" t="n">
-        <v>858.777228755232</v>
+        <v>858.7772287552322</v>
       </c>
       <c r="M23" t="n">
-        <v>522.8158905110421</v>
+        <v>972.3294240038748</v>
       </c>
       <c r="N23" t="n">
-        <v>580.8931959664857</v>
+        <v>973.2829351225521</v>
       </c>
       <c r="O23" t="n">
-        <v>492.5992167019469</v>
+        <v>743.7680905006557</v>
       </c>
       <c r="P23" t="n">
-        <v>707.3712471238046</v>
+        <v>385.572538952322</v>
       </c>
       <c r="Q23" t="n">
-        <v>453.2045698540787</v>
+        <v>240.8895791941742</v>
       </c>
       <c r="R23" t="n">
-        <v>119.5681134429707</v>
+        <v>53.8516935699883</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>158.628265125799</v>
+        <v>158.6282651257986</v>
       </c>
       <c r="K24" t="n">
-        <v>232.7464502732111</v>
+        <v>232.7464502732112</v>
       </c>
       <c r="L24" t="n">
-        <v>359.7467706995499</v>
+        <v>359.74677069955</v>
       </c>
       <c r="M24" t="n">
-        <v>439.3599053406081</v>
+        <v>439.3599053406082</v>
       </c>
       <c r="N24" t="n">
-        <v>465.5426414623564</v>
+        <v>465.5426414623565</v>
       </c>
       <c r="O24" t="n">
-        <v>403.4363282261406</v>
+        <v>403.4363282261407</v>
       </c>
       <c r="P24" t="n">
         <v>304.2648712357691</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.9695779704002</v>
+        <v>152.9695779704003</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.66964724519957</v>
+        <v>42.6696472451996</v>
       </c>
       <c r="K25" t="n">
-        <v>201.2676579342725</v>
+        <v>201.2676579342726</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6406158062928</v>
+        <v>313.6406158062929</v>
       </c>
       <c r="M25" t="n">
-        <v>341.1841174402724</v>
+        <v>341.1841174402725</v>
       </c>
       <c r="N25" t="n">
-        <v>338.5610332487668</v>
+        <v>338.5610332487669</v>
       </c>
       <c r="O25" t="n">
-        <v>296.5378356191177</v>
+        <v>296.5378356191178</v>
       </c>
       <c r="P25" t="n">
-        <v>229.9810819886107</v>
+        <v>229.9810819886108</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.94912157152875</v>
+        <v>74.94912157152878</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>352.0989977874564</v>
+        <v>183.0023826153827</v>
       </c>
       <c r="K26" t="n">
-        <v>649.6695741690561</v>
+        <v>325.5241615978915</v>
       </c>
       <c r="L26" t="n">
-        <v>858.777228755232</v>
+        <v>729.1459212911958</v>
       </c>
       <c r="M26" t="n">
-        <v>522.8158905110421</v>
+        <v>972.3294240038748</v>
       </c>
       <c r="N26" t="n">
-        <v>535.9360107105676</v>
+        <v>973.2829351225521</v>
       </c>
       <c r="O26" t="n">
-        <v>537.556401957866</v>
+        <v>873.3993979646925</v>
       </c>
       <c r="P26" t="n">
-        <v>707.3712471238046</v>
+        <v>385.572538952322</v>
       </c>
       <c r="Q26" t="n">
-        <v>453.2045698540787</v>
+        <v>240.8895791941742</v>
       </c>
       <c r="R26" t="n">
-        <v>119.5681134429707</v>
+        <v>53.8516935699883</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>158.628265125799</v>
+        <v>158.6282651257986</v>
       </c>
       <c r="K27" t="n">
-        <v>232.7464502732111</v>
+        <v>232.7464502732112</v>
       </c>
       <c r="L27" t="n">
-        <v>359.7467706995499</v>
+        <v>359.74677069955</v>
       </c>
       <c r="M27" t="n">
-        <v>439.3599053406081</v>
+        <v>439.3599053406082</v>
       </c>
       <c r="N27" t="n">
-        <v>465.5426414623564</v>
+        <v>465.5426414623565</v>
       </c>
       <c r="O27" t="n">
-        <v>403.4363282261406</v>
+        <v>403.4363282261407</v>
       </c>
       <c r="P27" t="n">
         <v>304.2648712357691</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.9695779704002</v>
+        <v>152.9695779704003</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.66964724519957</v>
+        <v>42.6696472451996</v>
       </c>
       <c r="K28" t="n">
-        <v>201.2676579342725</v>
+        <v>201.2676579342726</v>
       </c>
       <c r="L28" t="n">
-        <v>313.6406158062928</v>
+        <v>313.6406158062929</v>
       </c>
       <c r="M28" t="n">
-        <v>341.1841174402724</v>
+        <v>341.1841174402725</v>
       </c>
       <c r="N28" t="n">
-        <v>338.5610332487668</v>
+        <v>338.5610332487669</v>
       </c>
       <c r="O28" t="n">
-        <v>296.5378356191177</v>
+        <v>296.5378356191178</v>
       </c>
       <c r="P28" t="n">
-        <v>229.9810819886107</v>
+        <v>229.9810819886108</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.94912157152875</v>
+        <v>74.94912157152878</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>258.7172990418931</v>
+        <v>352.0989977874565</v>
       </c>
       <c r="K29" t="n">
-        <v>325.5241615978914</v>
+        <v>407.5964202245267</v>
       </c>
       <c r="L29" t="n">
-        <v>441.1160142047816</v>
+        <v>858.7772287552322</v>
       </c>
       <c r="M29" t="n">
-        <v>972.3294240038746</v>
+        <v>972.3294240038748</v>
       </c>
       <c r="N29" t="n">
-        <v>973.2829351225519</v>
+        <v>973.2829351225521</v>
       </c>
       <c r="O29" t="n">
-        <v>873.3993979646923</v>
+        <v>492.5992167019472</v>
       </c>
       <c r="P29" t="n">
-        <v>385.5725389523218</v>
+        <v>385.572538952322</v>
       </c>
       <c r="Q29" t="n">
-        <v>453.2045698540787</v>
+        <v>240.8895791941742</v>
       </c>
       <c r="R29" t="n">
-        <v>53.85169356998824</v>
+        <v>53.8516935699883</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>158.628265125799</v>
+        <v>158.6282651257986</v>
       </c>
       <c r="K30" t="n">
-        <v>232.7464502732111</v>
+        <v>232.7464502732112</v>
       </c>
       <c r="L30" t="n">
-        <v>359.7467706995499</v>
+        <v>359.74677069955</v>
       </c>
       <c r="M30" t="n">
-        <v>439.3599053406081</v>
+        <v>439.3599053406082</v>
       </c>
       <c r="N30" t="n">
-        <v>465.5426414623564</v>
+        <v>465.5426414623565</v>
       </c>
       <c r="O30" t="n">
-        <v>403.4363282261406</v>
+        <v>403.4363282261407</v>
       </c>
       <c r="P30" t="n">
         <v>304.2648712357691</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.9695779704002</v>
+        <v>152.9695779704003</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.66964724519957</v>
+        <v>42.6696472451996</v>
       </c>
       <c r="K31" t="n">
-        <v>201.2676579342725</v>
+        <v>201.2676579342726</v>
       </c>
       <c r="L31" t="n">
-        <v>313.6406158062928</v>
+        <v>313.6406158062929</v>
       </c>
       <c r="M31" t="n">
-        <v>341.1841174402724</v>
+        <v>341.1841174402725</v>
       </c>
       <c r="N31" t="n">
-        <v>338.5610332487668</v>
+        <v>338.5610332487669</v>
       </c>
       <c r="O31" t="n">
-        <v>296.5378356191177</v>
+        <v>296.5378356191178</v>
       </c>
       <c r="P31" t="n">
-        <v>229.9810819886107</v>
+        <v>229.9810819886108</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.94912157152875</v>
+        <v>74.94912157152878</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4044819946895</v>
+        <v>183.0023826153827</v>
       </c>
       <c r="K32" t="n">
-        <v>325.5241615978914</v>
+        <v>649.6695741690562</v>
       </c>
       <c r="L32" t="n">
-        <v>858.777228755232</v>
+        <v>842.3474331320148</v>
       </c>
       <c r="M32" t="n">
-        <v>972.3294240038746</v>
+        <v>972.3294240038748</v>
       </c>
       <c r="N32" t="n">
-        <v>535.9360107105676</v>
+        <v>535.9360107105679</v>
       </c>
       <c r="O32" t="n">
-        <v>492.5992167019469</v>
+        <v>873.3993979646925</v>
       </c>
       <c r="P32" t="n">
-        <v>707.3712471238046</v>
+        <v>385.572538952322</v>
       </c>
       <c r="Q32" t="n">
-        <v>453.2045698540787</v>
+        <v>240.8895791941742</v>
       </c>
       <c r="R32" t="n">
-        <v>53.85169356998824</v>
+        <v>53.8516935699883</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>158.628265125799</v>
+        <v>158.6282651257986</v>
       </c>
       <c r="K33" t="n">
-        <v>232.7464502732111</v>
+        <v>232.7464502732112</v>
       </c>
       <c r="L33" t="n">
-        <v>359.7467706995499</v>
+        <v>359.74677069955</v>
       </c>
       <c r="M33" t="n">
-        <v>439.3599053406081</v>
+        <v>439.3599053406082</v>
       </c>
       <c r="N33" t="n">
-        <v>465.5426414623564</v>
+        <v>465.5426414623565</v>
       </c>
       <c r="O33" t="n">
-        <v>403.4363282261406</v>
+        <v>403.4363282261407</v>
       </c>
       <c r="P33" t="n">
         <v>304.2648712357691</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.9695779704002</v>
+        <v>152.9695779704003</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>91.50565213058383</v>
+        <v>91.50565213058387</v>
       </c>
       <c r="K34" t="n">
         <v>250.1036628196568</v>
       </c>
       <c r="L34" t="n">
-        <v>362.476620691677</v>
+        <v>362.4766206916772</v>
       </c>
       <c r="M34" t="n">
-        <v>390.0201223256566</v>
+        <v>390.0201223256568</v>
       </c>
       <c r="N34" t="n">
-        <v>387.397038134151</v>
+        <v>387.3970381341512</v>
       </c>
       <c r="O34" t="n">
-        <v>345.373840504502</v>
+        <v>345.3738405045021</v>
       </c>
       <c r="P34" t="n">
         <v>278.817086873995</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>352.0989977874564</v>
+        <v>183.0023826153827</v>
       </c>
       <c r="K35" t="n">
-        <v>649.6695741690561</v>
+        <v>325.5241615978915</v>
       </c>
       <c r="L35" t="n">
-        <v>588.6506526213866</v>
+        <v>858.7772287552322</v>
       </c>
       <c r="M35" t="n">
-        <v>522.8158905110421</v>
+        <v>972.3294240038748</v>
       </c>
       <c r="N35" t="n">
-        <v>535.9360107105676</v>
+        <v>973.2829351225521</v>
       </c>
       <c r="O35" t="n">
-        <v>873.3993979646923</v>
+        <v>743.7680905006557</v>
       </c>
       <c r="P35" t="n">
-        <v>707.3712471238046</v>
+        <v>385.572538952322</v>
       </c>
       <c r="Q35" t="n">
-        <v>453.2045698540787</v>
+        <v>240.8895791941742</v>
       </c>
       <c r="R35" t="n">
-        <v>53.85169356998824</v>
+        <v>53.8516935699883</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>158.628265125799</v>
+        <v>158.6282651257986</v>
       </c>
       <c r="K36" t="n">
-        <v>232.7464502732111</v>
+        <v>232.7464502732112</v>
       </c>
       <c r="L36" t="n">
-        <v>359.7467706995499</v>
+        <v>359.74677069955</v>
       </c>
       <c r="M36" t="n">
-        <v>439.3599053406081</v>
+        <v>439.3599053406082</v>
       </c>
       <c r="N36" t="n">
-        <v>465.5426414623564</v>
+        <v>465.5426414623565</v>
       </c>
       <c r="O36" t="n">
-        <v>403.4363282261406</v>
+        <v>403.4363282261407</v>
       </c>
       <c r="P36" t="n">
         <v>304.2648712357691</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.9695779704002</v>
+        <v>152.9695779704003</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,19 +37467,19 @@
         <v>250.1036628196568</v>
       </c>
       <c r="L37" t="n">
-        <v>362.4766206916771</v>
+        <v>362.4766206916772</v>
       </c>
       <c r="M37" t="n">
         <v>390.0201223256568</v>
       </c>
       <c r="N37" t="n">
-        <v>387.3970381341511</v>
+        <v>387.3970381341512</v>
       </c>
       <c r="O37" t="n">
-        <v>345.373840504502</v>
+        <v>345.3738405045021</v>
       </c>
       <c r="P37" t="n">
-        <v>278.817086873995</v>
+        <v>278.8170868739951</v>
       </c>
       <c r="Q37" t="n">
         <v>123.7851264569131</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>352.0989977874564</v>
+        <v>183.0023826153827</v>
       </c>
       <c r="K38" t="n">
-        <v>649.6695741690561</v>
+        <v>645.4063876266878</v>
       </c>
       <c r="L38" t="n">
-        <v>588.6506526213866</v>
+        <v>858.7772287552322</v>
       </c>
       <c r="M38" t="n">
-        <v>522.8158905110421</v>
+        <v>522.8158905110423</v>
       </c>
       <c r="N38" t="n">
-        <v>535.9360107105676</v>
+        <v>973.2829351225521</v>
       </c>
       <c r="O38" t="n">
-        <v>873.3993979646923</v>
+        <v>873.3993979646925</v>
       </c>
       <c r="P38" t="n">
-        <v>707.3712471238046</v>
+        <v>385.572538952322</v>
       </c>
       <c r="Q38" t="n">
-        <v>453.2045698540787</v>
+        <v>240.8895791941742</v>
       </c>
       <c r="R38" t="n">
-        <v>53.85169356998824</v>
+        <v>53.8516935699883</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>89.98703917470843</v>
+        <v>89.98703917470846</v>
       </c>
       <c r="K39" t="n">
-        <v>232.7464502732111</v>
+        <v>232.7464502732112</v>
       </c>
       <c r="L39" t="n">
-        <v>359.7467706995499</v>
+        <v>359.74677069955</v>
       </c>
       <c r="M39" t="n">
-        <v>439.3599053406081</v>
+        <v>439.3599053406082</v>
       </c>
       <c r="N39" t="n">
-        <v>465.5426414623564</v>
+        <v>465.5426414623565</v>
       </c>
       <c r="O39" t="n">
-        <v>403.4363282261406</v>
+        <v>403.4363282261407</v>
       </c>
       <c r="P39" t="n">
         <v>304.2648712357691</v>
       </c>
       <c r="Q39" t="n">
-        <v>221.6108039214907</v>
+        <v>221.6108039214902</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>91.5056521305838</v>
+        <v>91.50565213058383</v>
       </c>
       <c r="K40" t="n">
-        <v>250.1036628196567</v>
+        <v>250.1036628196568</v>
       </c>
       <c r="L40" t="n">
-        <v>362.476620691677</v>
+        <v>362.4766206916771</v>
       </c>
       <c r="M40" t="n">
-        <v>390.0201223256566</v>
+        <v>390.0201223256568</v>
       </c>
       <c r="N40" t="n">
-        <v>387.397038134151</v>
+        <v>387.3970381341511</v>
       </c>
       <c r="O40" t="n">
         <v>345.373840504502</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>183.0023826153827</v>
+        <v>228.5709924405339</v>
       </c>
       <c r="K41" t="n">
-        <v>649.6695741690561</v>
+        <v>649.6695741690562</v>
       </c>
       <c r="L41" t="n">
-        <v>858.777228755232</v>
+        <v>858.7772287552322</v>
       </c>
       <c r="M41" t="n">
-        <v>522.8158905110421</v>
+        <v>522.8158905110423</v>
       </c>
       <c r="N41" t="n">
-        <v>973.2829351225519</v>
+        <v>535.9360107105679</v>
       </c>
       <c r="O41" t="n">
-        <v>492.5992167019469</v>
+        <v>873.3993979646925</v>
       </c>
       <c r="P41" t="n">
         <v>707.3712471238046</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.889579194174</v>
+        <v>240.8895791941742</v>
       </c>
       <c r="R41" t="n">
-        <v>108.5899801188823</v>
+        <v>119.5681134429707</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>158.628265125799</v>
+        <v>158.6282651257986</v>
       </c>
       <c r="K42" t="n">
-        <v>232.7464502732111</v>
+        <v>232.7464502732112</v>
       </c>
       <c r="L42" t="n">
-        <v>359.7467706995499</v>
+        <v>359.74677069955</v>
       </c>
       <c r="M42" t="n">
-        <v>439.3599053406081</v>
+        <v>439.3599053406082</v>
       </c>
       <c r="N42" t="n">
-        <v>465.5426414623564</v>
+        <v>465.5426414623565</v>
       </c>
       <c r="O42" t="n">
-        <v>403.4363282261406</v>
+        <v>403.4363282261407</v>
       </c>
       <c r="P42" t="n">
         <v>304.2648712357691</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.9695779704002</v>
+        <v>152.9695779704003</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>250.1036628196568</v>
       </c>
       <c r="L43" t="n">
-        <v>362.4766206916771</v>
+        <v>362.4766206916772</v>
       </c>
       <c r="M43" t="n">
-        <v>390.0201223256567</v>
+        <v>390.0201223256568</v>
       </c>
       <c r="N43" t="n">
-        <v>387.397038134151</v>
+        <v>387.3970381341512</v>
       </c>
       <c r="O43" t="n">
-        <v>345.373840504502</v>
+        <v>345.3738405045021</v>
       </c>
       <c r="P43" t="n">
         <v>278.817086873995</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>183.0023826153827</v>
+        <v>183.0023826153828</v>
       </c>
       <c r="K44" t="n">
-        <v>649.6695741690561</v>
+        <v>325.5241615978916</v>
       </c>
       <c r="L44" t="n">
-        <v>858.777228755232</v>
+        <v>858.7772287552324</v>
       </c>
       <c r="M44" t="n">
-        <v>522.8158905110421</v>
+        <v>972.3294240038749</v>
       </c>
       <c r="N44" t="n">
-        <v>973.2829351225519</v>
+        <v>973.2829351225522</v>
       </c>
       <c r="O44" t="n">
-        <v>869.1362114223245</v>
+        <v>743.7680905006544</v>
       </c>
       <c r="P44" t="n">
-        <v>385.5725389523218</v>
+        <v>385.5725389523221</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.889579194174</v>
+        <v>240.8895791941743</v>
       </c>
       <c r="R44" t="n">
-        <v>53.85169356998824</v>
+        <v>53.85169356998836</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>158.628265125799</v>
+        <v>158.628265125798</v>
       </c>
       <c r="K45" t="n">
-        <v>232.7464502732111</v>
+        <v>232.7464502732112</v>
       </c>
       <c r="L45" t="n">
-        <v>359.7467706995499</v>
+        <v>359.7467706995502</v>
       </c>
       <c r="M45" t="n">
-        <v>439.3599053406081</v>
+        <v>439.3599053406083</v>
       </c>
       <c r="N45" t="n">
-        <v>465.5426414623564</v>
+        <v>465.5426414623566</v>
       </c>
       <c r="O45" t="n">
-        <v>403.4363282261406</v>
+        <v>403.4363282261409</v>
       </c>
       <c r="P45" t="n">
-        <v>304.2648712357691</v>
+        <v>304.2648712357692</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.9695779704002</v>
+        <v>152.9695779704003</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>91.50565213058388</v>
+        <v>91.50565213058387</v>
       </c>
       <c r="K46" t="n">
         <v>250.1036628196568</v>
       </c>
       <c r="L46" t="n">
-        <v>362.4766206916771</v>
+        <v>362.4766206916772</v>
       </c>
       <c r="M46" t="n">
         <v>390.0201223256568</v>
       </c>
       <c r="N46" t="n">
-        <v>387.3970381341511</v>
+        <v>387.3970381341512</v>
       </c>
       <c r="O46" t="n">
-        <v>345.373840504502</v>
+        <v>345.3738405045021</v>
       </c>
       <c r="P46" t="n">
         <v>278.817086873995</v>
       </c>
       <c r="Q46" t="n">
-        <v>123.7851264569131</v>
+        <v>123.785126456913</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
